--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_4_19.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_4_19.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>344214.3004892993</v>
+        <v>336666.1030777135</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18249983.41937635</v>
+        <v>17287498.18481127</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3650026.315129931</v>
+        <v>2706694.536732692</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6822625.81341128</v>
+        <v>7186189.534133675</v>
       </c>
     </row>
     <row r="11">
@@ -656,25 +658,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>246.3080814718509</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>132.162386897836</v>
       </c>
       <c r="I2" t="n">
         <v>0.4126214791313976</v>
@@ -710,13 +712,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
         <v>400.806900043077</v>
@@ -823,19 +825,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>83.42661545872168</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>24.34318456170477</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>157.6489550149833</v>
@@ -893,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>54.39696420161074</v>
       </c>
       <c r="G5" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>192.1206041023302</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1066,10 +1068,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>73.01514676193496</v>
       </c>
       <c r="I7" t="n">
         <v>87.77334973307141</v>
@@ -1099,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1108,7 +1110,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>67.4289457920829</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
         <v>284.0859530482738</v>
@@ -1136,19 +1138,19 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>423.5887552948843</v>
+        <v>87.50755336022249</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1190,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>238.6676294247094</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>400.806900043077</v>
@@ -1303,13 +1305,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170476</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,13 +1341,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>67.4289457920829</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
         <v>284.0859530482738</v>
@@ -1367,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
         <v>433.7610480884109</v>
@@ -1382,10 +1384,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>185.1097729955956</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1430,13 +1432,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>45.91568880648689</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -1540,13 +1542,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170476</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,13 +1578,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
-        <v>67.4289457920829</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V13" t="n">
         <v>284.0859530482738</v>
@@ -1604,13 +1606,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
         <v>429.4369973932878</v>
@@ -1619,13 +1621,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1664,13 +1666,13 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>161.5257047581617</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864824</v>
+        <v>45.91568880648689</v>
       </c>
       <c r="Y14" t="n">
         <v>404.2032624633431</v>
@@ -1780,10 +1782,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,13 +1815,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
-        <v>67.4289457920829</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V16" t="n">
         <v>284.0859530482738</v>
@@ -1841,10 +1843,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>422.036574780059</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
         <v>431.5506869772999</v>
@@ -1853,13 +1855,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
         <v>0.4126214791313976</v>
@@ -1892,19 +1894,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
-        <v>153.563773075746</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V17" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
         <v>414.9510387864824</v>
@@ -2017,10 +2019,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,13 +2052,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U19" t="n">
-        <v>67.4289457920829</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V19" t="n">
         <v>284.0859530482738</v>
@@ -2093,13 +2095,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>397.3838530629699</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H20" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791316623</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2236,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C22" t="n">
         <v>170.8360944016073</v>
@@ -2248,13 +2250,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
-        <v>65.54144271872141</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2479,10 +2481,10 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
         <v>174.9399834978613</v>
@@ -2491,10 +2493,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>124.0599116349192</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2612,7 +2614,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V26" t="n">
-        <v>358.9907805655117</v>
+        <v>358.9907805655118</v>
       </c>
       <c r="W26" t="n">
         <v>400.806900043077</v>
@@ -2728,7 +2730,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>136.0564930766996</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2761,13 +2763,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V28" t="n">
         <v>284.0859530482738</v>
@@ -2792,7 +2794,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C29" t="n">
-        <v>433.7610480884122</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D29" t="n">
         <v>431.5506869772999</v>
@@ -2810,7 +2812,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I29" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791316623</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2959,16 +2961,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
-        <v>39.57637241135472</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3007,7 +3009,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V31" t="n">
-        <v>284.0859530482738</v>
+        <v>75.86622810093029</v>
       </c>
       <c r="W31" t="n">
         <v>269.3061403695714</v>
@@ -3284,7 +3286,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I35" t="n">
-        <v>0.4126214791325486</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3433,7 +3435,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>14.14416275345333</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
         <v>163.9353622244306</v>
@@ -3469,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3521,7 +3523,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I38" t="n">
-        <v>0.4126214791325486</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3676,10 +3678,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>18.05677735225796</v>
       </c>
       <c r="T40" t="n">
-        <v>35.20092700998597</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U40" t="n">
         <v>275.6486707394257</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800233</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
         <v>217.8665548556918</v>
@@ -3913,10 +3915,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>18.05677735225719</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3961,7 +3963,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
-        <v>34.71811217257828</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
         <v>225.1454739790328</v>
@@ -3974,28 +3976,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
-        <v>139.6605443705428</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
         <v>217.8665548556918</v>
@@ -4135,7 +4137,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>10.04027365719915</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
         <v>164.2192128704925</v>
@@ -4180,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225796</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
@@ -4304,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1856.919248142115</v>
+        <v>588.7131977810893</v>
       </c>
       <c r="C2" t="n">
-        <v>1856.919248142115</v>
+        <v>588.7131977810893</v>
       </c>
       <c r="D2" t="n">
-        <v>1421.009463316559</v>
+        <v>588.7131977810893</v>
       </c>
       <c r="E2" t="n">
-        <v>1172.213421425801</v>
+        <v>588.7131977810893</v>
       </c>
       <c r="F2" t="n">
-        <v>744.3459918350084</v>
+        <v>588.7131977810893</v>
       </c>
       <c r="G2" t="n">
-        <v>342.9481604582723</v>
+        <v>187.3153664043532</v>
       </c>
       <c r="H2" t="n">
         <v>53.81800590148856</v>
@@ -4328,19 +4330,19 @@
         <v>53.40121652862857</v>
       </c>
       <c r="J2" t="n">
-        <v>488.6559039815464</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="K2" t="n">
-        <v>1149.495958523325</v>
+        <v>714.241271070407</v>
       </c>
       <c r="L2" t="n">
-        <v>1293.567921177998</v>
+        <v>714.241271070407</v>
       </c>
       <c r="M2" t="n">
-        <v>1293.567921177998</v>
+        <v>714.241271070407</v>
       </c>
       <c r="N2" t="n">
-        <v>1293.567921177998</v>
+        <v>714.241271070407</v>
       </c>
       <c r="O2" t="n">
         <v>1293.567921177998</v>
@@ -4358,22 +4360,22 @@
         <v>2670.060826431428</v>
       </c>
       <c r="T2" t="n">
-        <v>2670.060826431428</v>
+        <v>2449.993599304467</v>
       </c>
       <c r="U2" t="n">
-        <v>2670.060826431428</v>
+        <v>2190.771296621484</v>
       </c>
       <c r="V2" t="n">
-        <v>2670.060826431428</v>
+        <v>1828.15434655531</v>
       </c>
       <c r="W2" t="n">
-        <v>2265.205371842461</v>
+        <v>1423.298891966344</v>
       </c>
       <c r="X2" t="n">
-        <v>2265.205371842461</v>
+        <v>1423.298891966344</v>
       </c>
       <c r="Y2" t="n">
-        <v>1856.919248142115</v>
+        <v>1015.012768265997</v>
       </c>
     </row>
     <row r="3">
@@ -4410,19 +4412,19 @@
         <v>404.0232146552985</v>
       </c>
       <c r="K3" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L3" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M3" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N3" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O3" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P3" t="n">
         <v>1058.729261281022</v>
@@ -4462,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>741.4772326516127</v>
+        <v>762.8950539462408</v>
       </c>
       <c r="C4" t="n">
-        <v>568.9155211348376</v>
+        <v>590.3333424294657</v>
       </c>
       <c r="D4" t="n">
-        <v>403.0375283363603</v>
+        <v>424.4553496309884</v>
       </c>
       <c r="E4" t="n">
-        <v>318.768219792197</v>
+        <v>254.6973458817257</v>
       </c>
       <c r="F4" t="n">
-        <v>142.0611657539532</v>
+        <v>77.99029184348186</v>
       </c>
       <c r="G4" t="n">
-        <v>142.0611657539532</v>
+        <v>53.40121652862855</v>
       </c>
       <c r="H4" t="n">
-        <v>142.0611657539532</v>
+        <v>53.40121652862855</v>
       </c>
       <c r="I4" t="n">
         <v>53.40121652862855</v>
@@ -4510,28 +4512,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R4" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S4" t="n">
-        <v>2489.401636434797</v>
+        <v>2510.819457729425</v>
       </c>
       <c r="T4" t="n">
-        <v>2243.522190013252</v>
+        <v>2264.94001130788</v>
       </c>
       <c r="U4" t="n">
-        <v>1965.089189266357</v>
+        <v>1986.507010560985</v>
       </c>
       <c r="V4" t="n">
-        <v>1678.133681136788</v>
+        <v>1699.551502431416</v>
       </c>
       <c r="W4" t="n">
-        <v>1406.107276723079</v>
+        <v>1427.525098017707</v>
       </c>
       <c r="X4" t="n">
-        <v>1160.715522056492</v>
+        <v>1182.13334335112</v>
       </c>
       <c r="Y4" t="n">
-        <v>933.2958513705998</v>
+        <v>954.7136726652279</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>454.7990479053647</v>
+        <v>2107.119422805321</v>
       </c>
       <c r="C5" t="n">
-        <v>454.7990479053647</v>
+        <v>1668.976949988744</v>
       </c>
       <c r="D5" t="n">
-        <v>454.7990479053647</v>
+        <v>1233.067165163189</v>
       </c>
       <c r="E5" t="n">
-        <v>454.7990479053647</v>
+        <v>799.2924203214839</v>
       </c>
       <c r="F5" t="n">
-        <v>454.7990479053647</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="G5" t="n">
-        <v>53.40121652862857</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H5" t="n">
-        <v>53.40121652862857</v>
+        <v>53.81800590148856</v>
       </c>
       <c r="I5" t="n">
         <v>53.40121652862857</v>
       </c>
       <c r="J5" t="n">
-        <v>141.0418768474983</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K5" t="n">
-        <v>141.0418768474983</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L5" t="n">
-        <v>801.8819313892767</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M5" t="n">
-        <v>1462.721985931055</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N5" t="n">
-        <v>2123.562040472834</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O5" t="n">
-        <v>2123.562040472834</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="P5" t="n">
-        <v>2123.562040472834</v>
+        <v>1954.407975719777</v>
       </c>
       <c r="Q5" t="n">
-        <v>2670.060826431428</v>
+        <v>2500.906761678372</v>
       </c>
       <c r="R5" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T5" t="n">
-        <v>2670.060826431428</v>
+        <v>2366.341725488304</v>
       </c>
       <c r="U5" t="n">
-        <v>2475.999610166448</v>
+        <v>2107.119422805321</v>
       </c>
       <c r="V5" t="n">
-        <v>2113.382660100275</v>
+        <v>2107.119422805321</v>
       </c>
       <c r="W5" t="n">
-        <v>1708.527205511308</v>
+        <v>2107.119422805321</v>
       </c>
       <c r="X5" t="n">
-        <v>1289.384742090619</v>
+        <v>2107.119422805321</v>
       </c>
       <c r="Y5" t="n">
-        <v>881.0986183902725</v>
+        <v>2107.119422805321</v>
       </c>
     </row>
     <row r="6">
@@ -4641,28 +4643,28 @@
         <v>53.40121652862857</v>
       </c>
       <c r="I6" t="n">
-        <v>79.46488968908616</v>
+        <v>73.33088177303142</v>
       </c>
       <c r="J6" t="n">
-        <v>79.46488968908616</v>
+        <v>397.8892067392438</v>
       </c>
       <c r="K6" t="n">
-        <v>79.46488968908616</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L6" t="n">
-        <v>79.46488968908616</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M6" t="n">
-        <v>277.7880908295409</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N6" t="n">
-        <v>938.6281453713193</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O6" t="n">
-        <v>1599.468199913098</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P6" t="n">
-        <v>1599.468199913098</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
         <v>1599.468199913098</v>
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1132.45937714051</v>
+        <v>900.7186013536161</v>
       </c>
       <c r="C7" t="n">
-        <v>959.897665623735</v>
+        <v>728.1568898368411</v>
       </c>
       <c r="D7" t="n">
-        <v>794.0196728252577</v>
+        <v>562.2788970383638</v>
       </c>
       <c r="E7" t="n">
-        <v>624.2616690759949</v>
+        <v>392.520893289101</v>
       </c>
       <c r="F7" t="n">
-        <v>447.554615037751</v>
+        <v>215.8138392508572</v>
       </c>
       <c r="G7" t="n">
-        <v>281.9633400635787</v>
+        <v>215.8138392508572</v>
       </c>
       <c r="H7" t="n">
         <v>142.0611657539532</v>
       </c>
       <c r="I7" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862855</v>
       </c>
       <c r="J7" t="n">
         <v>139.9809016933184</v>
@@ -4747,28 +4749,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>2670.060826431428</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S7" t="n">
-        <v>2670.060826431428</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="T7" t="n">
-        <v>2424.181380009883</v>
+        <v>2402.763558715255</v>
       </c>
       <c r="U7" t="n">
-        <v>2356.071333755254</v>
+        <v>2124.330557968361</v>
       </c>
       <c r="V7" t="n">
-        <v>2069.115825625685</v>
+        <v>1837.375049838791</v>
       </c>
       <c r="W7" t="n">
-        <v>1797.089421211977</v>
+        <v>1565.348645425083</v>
       </c>
       <c r="X7" t="n">
-        <v>1551.697666545389</v>
+        <v>1319.956890758495</v>
       </c>
       <c r="Y7" t="n">
-        <v>1324.277995859497</v>
+        <v>1092.537220072603</v>
       </c>
     </row>
     <row r="8">
@@ -4778,52 +4780,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>770.3988006762045</v>
+        <v>1011.477214236518</v>
       </c>
       <c r="C8" t="n">
-        <v>770.3988006762045</v>
+        <v>1011.477214236518</v>
       </c>
       <c r="D8" t="n">
-        <v>770.3988006762045</v>
+        <v>575.5674294109622</v>
       </c>
       <c r="E8" t="n">
-        <v>770.3988006762045</v>
+        <v>141.7926845692573</v>
       </c>
       <c r="F8" t="n">
-        <v>342.5313710854123</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="G8" t="n">
-        <v>342.5313710854123</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H8" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I8" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J8" t="n">
-        <v>53.40121652862856</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>714.2412710704069</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L8" t="n">
-        <v>714.2412710704069</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M8" t="n">
-        <v>714.2412710704069</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N8" t="n">
-        <v>714.2412710704069</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O8" t="n">
-        <v>1293.567921177998</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="P8" t="n">
-        <v>1954.407975719776</v>
+        <v>2123.562040472834</v>
       </c>
       <c r="Q8" t="n">
-        <v>2500.906761678371</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R8" t="n">
         <v>2670.060826431428</v>
@@ -4838,16 +4840,16 @@
         <v>2670.060826431428</v>
       </c>
       <c r="V8" t="n">
-        <v>2428.982412871115</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="W8" t="n">
-        <v>2024.126958282148</v>
+        <v>2265.205371842461</v>
       </c>
       <c r="X8" t="n">
-        <v>1604.984494861459</v>
+        <v>1846.062908421772</v>
       </c>
       <c r="Y8" t="n">
-        <v>1196.698371161112</v>
+        <v>1437.776784721425</v>
       </c>
     </row>
     <row r="9">
@@ -4875,28 +4877,28 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I9" t="n">
         <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>79.46488968908616</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>740.3049442308645</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L9" t="n">
-        <v>740.3049442308645</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M9" t="n">
-        <v>740.3049442308645</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N9" t="n">
-        <v>1058.729261281022</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O9" t="n">
-        <v>1058.729261281022</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P9" t="n">
         <v>1058.729261281022</v>
@@ -4936,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1132.45937714051</v>
+        <v>762.8950539462408</v>
       </c>
       <c r="C10" t="n">
-        <v>959.897665623735</v>
+        <v>590.3333424294657</v>
       </c>
       <c r="D10" t="n">
-        <v>794.0196728252577</v>
+        <v>424.4553496309884</v>
       </c>
       <c r="E10" t="n">
-        <v>624.2616690759949</v>
+        <v>254.6973458817257</v>
       </c>
       <c r="F10" t="n">
-        <v>447.554615037751</v>
+        <v>77.99029184348186</v>
       </c>
       <c r="G10" t="n">
-        <v>281.9633400635787</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H10" t="n">
-        <v>142.0611657539532</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I10" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J10" t="n">
         <v>139.9809016933184</v>
@@ -4987,25 +4989,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S10" t="n">
-        <v>2670.060826431428</v>
+        <v>2510.819457729425</v>
       </c>
       <c r="T10" t="n">
-        <v>2424.181380009883</v>
+        <v>2264.94001130788</v>
       </c>
       <c r="U10" t="n">
-        <v>2356.071333755254</v>
+        <v>1986.507010560985</v>
       </c>
       <c r="V10" t="n">
-        <v>2069.115825625685</v>
+        <v>1699.551502431416</v>
       </c>
       <c r="W10" t="n">
-        <v>1797.089421211977</v>
+        <v>1427.525098017707</v>
       </c>
       <c r="X10" t="n">
-        <v>1551.697666545389</v>
+        <v>1182.13334335112</v>
       </c>
       <c r="Y10" t="n">
-        <v>1324.277995859497</v>
+        <v>954.7136726652279</v>
       </c>
     </row>
     <row r="11">
@@ -5015,37 +5017,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2265.205371842461</v>
+        <v>1789.095648603258</v>
       </c>
       <c r="C11" t="n">
-        <v>1827.062899025885</v>
+        <v>1350.953175786681</v>
       </c>
       <c r="D11" t="n">
-        <v>1391.153114200329</v>
+        <v>915.0433909611256</v>
       </c>
       <c r="E11" t="n">
-        <v>957.3783693586242</v>
+        <v>481.2686461194209</v>
       </c>
       <c r="F11" t="n">
-        <v>529.510939767832</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="G11" t="n">
-        <v>342.5313710854123</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H11" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I11" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J11" t="n">
-        <v>488.6559039815464</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="K11" t="n">
-        <v>1149.495958523325</v>
+        <v>632.7278666362199</v>
       </c>
       <c r="L11" t="n">
-        <v>1293.567921177998</v>
+        <v>632.7278666362199</v>
       </c>
       <c r="M11" t="n">
         <v>1293.567921177998</v>
@@ -5057,10 +5059,10 @@
         <v>1293.567921177998</v>
       </c>
       <c r="P11" t="n">
-        <v>1954.407975719776</v>
+        <v>1954.407975719777</v>
       </c>
       <c r="Q11" t="n">
-        <v>2500.906761678371</v>
+        <v>2500.906761678372</v>
       </c>
       <c r="R11" t="n">
         <v>2670.060826431428</v>
@@ -5078,13 +5080,13 @@
         <v>2670.060826431428</v>
       </c>
       <c r="W11" t="n">
-        <v>2265.205371842461</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="X11" t="n">
-        <v>2265.205371842461</v>
+        <v>2623.681342788512</v>
       </c>
       <c r="Y11" t="n">
-        <v>2265.205371842461</v>
+        <v>2215.395219088166</v>
       </c>
     </row>
     <row r="12">
@@ -5112,22 +5114,22 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H12" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I12" t="n">
         <v>79.46488968908616</v>
       </c>
       <c r="J12" t="n">
-        <v>79.46488968908616</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K12" t="n">
-        <v>740.3049442308645</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L12" t="n">
-        <v>740.3049442308645</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M12" t="n">
-        <v>740.3049442308645</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N12" t="n">
         <v>1058.729261281022</v>
@@ -5173,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1132.45937714051</v>
+        <v>762.8950539462408</v>
       </c>
       <c r="C13" t="n">
-        <v>959.897665623735</v>
+        <v>590.3333424294657</v>
       </c>
       <c r="D13" t="n">
-        <v>794.0196728252577</v>
+        <v>424.4553496309884</v>
       </c>
       <c r="E13" t="n">
-        <v>624.2616690759949</v>
+        <v>254.6973458817257</v>
       </c>
       <c r="F13" t="n">
-        <v>447.554615037751</v>
+        <v>77.99029184348186</v>
       </c>
       <c r="G13" t="n">
-        <v>281.9633400635787</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H13" t="n">
-        <v>142.0611657539532</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I13" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J13" t="n">
         <v>139.9809016933184</v>
@@ -5224,25 +5226,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S13" t="n">
-        <v>2670.060826431428</v>
+        <v>2510.819457729425</v>
       </c>
       <c r="T13" t="n">
-        <v>2424.181380009883</v>
+        <v>2264.94001130788</v>
       </c>
       <c r="U13" t="n">
-        <v>2356.071333755254</v>
+        <v>1986.507010560985</v>
       </c>
       <c r="V13" t="n">
-        <v>2069.115825625685</v>
+        <v>1699.551502431416</v>
       </c>
       <c r="W13" t="n">
-        <v>1797.089421211977</v>
+        <v>1427.525098017707</v>
       </c>
       <c r="X13" t="n">
-        <v>1551.697666545389</v>
+        <v>1182.13334335112</v>
       </c>
       <c r="Y13" t="n">
-        <v>1324.277995859497</v>
+        <v>954.7136726652279</v>
       </c>
     </row>
     <row r="14">
@@ -5252,52 +5254,52 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1316.858011710722</v>
+        <v>1789.095648603258</v>
       </c>
       <c r="C14" t="n">
-        <v>1316.858011710722</v>
+        <v>1350.953175786681</v>
       </c>
       <c r="D14" t="n">
-        <v>1316.858011710722</v>
+        <v>915.0433909611256</v>
       </c>
       <c r="E14" t="n">
-        <v>883.0832668690169</v>
+        <v>481.2686461194209</v>
       </c>
       <c r="F14" t="n">
-        <v>455.2158372782247</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="G14" t="n">
-        <v>53.81800590148855</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H14" t="n">
-        <v>53.81800590148855</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I14" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J14" t="n">
         <v>488.6559039815464</v>
       </c>
       <c r="K14" t="n">
-        <v>1149.495958523325</v>
+        <v>632.7278666362199</v>
       </c>
       <c r="L14" t="n">
-        <v>1810.336013065103</v>
+        <v>632.7278666362199</v>
       </c>
       <c r="M14" t="n">
-        <v>1810.336013065103</v>
+        <v>632.7278666362199</v>
       </c>
       <c r="N14" t="n">
-        <v>1810.336013065103</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O14" t="n">
-        <v>1810.336013065103</v>
+        <v>1954.407975719777</v>
       </c>
       <c r="P14" t="n">
-        <v>2123.562040472833</v>
+        <v>1954.407975719777</v>
       </c>
       <c r="Q14" t="n">
-        <v>2670.060826431428</v>
+        <v>2500.906761678372</v>
       </c>
       <c r="R14" t="n">
         <v>2670.060826431428</v>
@@ -5312,16 +5314,16 @@
         <v>2670.060826431428</v>
       </c>
       <c r="V14" t="n">
-        <v>2307.443876365254</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="W14" t="n">
-        <v>2144.286598831758</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="X14" t="n">
-        <v>1725.144135411068</v>
+        <v>2623.681342788512</v>
       </c>
       <c r="Y14" t="n">
-        <v>1316.858011710722</v>
+        <v>2215.395219088166</v>
       </c>
     </row>
     <row r="15">
@@ -5349,7 +5351,7 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H15" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I15" t="n">
         <v>79.46488968908616</v>
@@ -5358,19 +5360,19 @@
         <v>404.0232146552985</v>
       </c>
       <c r="K15" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L15" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M15" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N15" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O15" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P15" t="n">
         <v>1058.729261281022</v>
@@ -5410,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1132.45937714051</v>
+        <v>903.8972536055599</v>
       </c>
       <c r="C16" t="n">
-        <v>959.897665623735</v>
+        <v>731.3355420887848</v>
       </c>
       <c r="D16" t="n">
-        <v>794.0196728252577</v>
+        <v>565.4575492903075</v>
       </c>
       <c r="E16" t="n">
-        <v>624.2616690759949</v>
+        <v>395.6995455410447</v>
       </c>
       <c r="F16" t="n">
-        <v>447.554615037751</v>
+        <v>218.9924915028009</v>
       </c>
       <c r="G16" t="n">
-        <v>281.9633400635787</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H16" t="n">
-        <v>142.0611657539532</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I16" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J16" t="n">
         <v>139.9809016933184</v>
@@ -5461,25 +5463,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S16" t="n">
-        <v>2670.060826431428</v>
+        <v>2651.821657388744</v>
       </c>
       <c r="T16" t="n">
-        <v>2424.181380009883</v>
+        <v>2405.942210967199</v>
       </c>
       <c r="U16" t="n">
-        <v>2356.071333755254</v>
+        <v>2127.509210220304</v>
       </c>
       <c r="V16" t="n">
-        <v>2069.115825625685</v>
+        <v>1840.553702090735</v>
       </c>
       <c r="W16" t="n">
-        <v>1797.089421211977</v>
+        <v>1568.527297677026</v>
       </c>
       <c r="X16" t="n">
-        <v>1551.697666545389</v>
+        <v>1323.135543010439</v>
       </c>
       <c r="Y16" t="n">
-        <v>1324.277995859497</v>
+        <v>1095.715872324547</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1324.900366945485</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C17" t="n">
-        <v>1324.900366945485</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D17" t="n">
-        <v>888.9905821199295</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E17" t="n">
-        <v>455.2158372782247</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>455.2158372782247</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G17" t="n">
-        <v>53.81800590148855</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H17" t="n">
-        <v>53.81800590148855</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I17" t="n">
-        <v>53.40121652862856</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>488.6559039815464</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K17" t="n">
-        <v>632.7278666362198</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L17" t="n">
-        <v>632.7278666362198</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>1293.567921177998</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N17" t="n">
-        <v>1954.407975719776</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O17" t="n">
-        <v>1954.407975719776</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P17" t="n">
-        <v>1954.407975719776</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>2500.906761678371</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R17" t="n">
-        <v>2670.060826431428</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S17" t="n">
-        <v>2670.060826431428</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T17" t="n">
-        <v>2514.945904132695</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U17" t="n">
-        <v>2514.945904132695</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V17" t="n">
-        <v>2152.328954066521</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W17" t="n">
-        <v>2152.328954066521</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
-        <v>1733.186490645832</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y17" t="n">
-        <v>1324.900366945485</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>559.5729615199214</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C18" t="n">
-        <v>453.1165003565636</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D18" t="n">
-        <v>358.0262115031169</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E18" t="n">
-        <v>263.9057968300706</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F18" t="n">
-        <v>180.5219584462322</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G18" t="n">
-        <v>95.13686871241609</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H18" t="n">
-        <v>53.40121652862856</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>53.40121652862856</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>377.9595414948409</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>1038.799596036619</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L18" t="n">
-        <v>1038.799596036619</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M18" t="n">
-        <v>1038.799596036619</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N18" t="n">
-        <v>1038.799596036619</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O18" t="n">
-        <v>1058.729261281022</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P18" t="n">
-        <v>1058.729261281022</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q18" t="n">
-        <v>1599.468199913098</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R18" t="n">
-        <v>1716.640978007438</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S18" t="n">
-        <v>1653.185540455821</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T18" t="n">
-        <v>1523.006896786422</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U18" t="n">
-        <v>1346.67034978639</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V18" t="n">
-        <v>1147.55283184839</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W18" t="n">
-        <v>962.2300775815838</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X18" t="n">
-        <v>807.3626418204638</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y18" t="n">
-        <v>680.8768625996845</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1132.45937714051</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C19" t="n">
-        <v>959.897665623735</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D19" t="n">
-        <v>794.0196728252577</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E19" t="n">
-        <v>624.2616690759949</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F19" t="n">
-        <v>447.554615037751</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G19" t="n">
-        <v>281.9633400635787</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H19" t="n">
-        <v>142.0611657539532</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I19" t="n">
-        <v>53.40121652862856</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J19" t="n">
-        <v>139.9809016933184</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K19" t="n">
-        <v>414.739356264454</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L19" t="n">
-        <v>832.9492380324151</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M19" t="n">
-        <v>1292.433105213328</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N19" t="n">
-        <v>1734.691908370973</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O19" t="n">
-        <v>2154.361157596754</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P19" t="n">
-        <v>2501.868051567096</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q19" t="n">
-        <v>2670.060826431428</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2670.060826431428</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2670.060826431428</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T19" t="n">
-        <v>2424.181380009883</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U19" t="n">
-        <v>2356.071333755254</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V19" t="n">
-        <v>2069.115825625685</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W19" t="n">
-        <v>1797.089421211977</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X19" t="n">
-        <v>1551.697666545389</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y19" t="n">
-        <v>1324.277995859497</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="20">
@@ -5726,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C20" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D20" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E20" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004236</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436399</v>
       </c>
       <c r="I20" t="n">
         <v>102.2608402707796</v>
@@ -5759,43 +5761,43 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>2588.899621423628</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N20" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O20" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P20" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W20" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>608.4325852620724</v>
+        <v>3955.973997051464</v>
       </c>
       <c r="C21" t="n">
-        <v>501.9761240987147</v>
+        <v>3849.517535888106</v>
       </c>
       <c r="D21" t="n">
-        <v>406.885835245268</v>
+        <v>3754.427247034659</v>
       </c>
       <c r="E21" t="n">
-        <v>312.7654205722217</v>
+        <v>3660.306832361613</v>
       </c>
       <c r="F21" t="n">
-        <v>229.3815821883833</v>
+        <v>3576.922993977775</v>
       </c>
       <c r="G21" t="n">
-        <v>143.9964924545671</v>
+        <v>3491.537904243959</v>
       </c>
       <c r="H21" t="n">
-        <v>102.2608402707796</v>
+        <v>3449.802252060171</v>
       </c>
       <c r="I21" t="n">
-        <v>102.2608402707796</v>
+        <v>3475.865925220629</v>
       </c>
       <c r="J21" t="n">
-        <v>102.2608402707796</v>
+        <v>3800.424250186841</v>
       </c>
       <c r="K21" t="n">
-        <v>102.2608402707796</v>
+        <v>4455.130296812565</v>
       </c>
       <c r="L21" t="n">
-        <v>102.2608402707796</v>
+        <v>4455.130296812565</v>
       </c>
       <c r="M21" t="n">
-        <v>102.2608402707796</v>
+        <v>4455.130296812565</v>
       </c>
       <c r="N21" t="n">
-        <v>102.2608402707796</v>
+        <v>4455.130296812565</v>
       </c>
       <c r="O21" t="n">
-        <v>945.7774352703902</v>
+        <v>4455.130296812565</v>
       </c>
       <c r="P21" t="n">
-        <v>1765.500601749588</v>
+        <v>4455.130296812565</v>
       </c>
       <c r="Q21" t="n">
-        <v>1765.500601749588</v>
+        <v>4995.86923544464</v>
       </c>
       <c r="R21" t="n">
-        <v>1765.500601749588</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S21" t="n">
-        <v>1702.045164197971</v>
+        <v>5049.586575987363</v>
       </c>
       <c r="T21" t="n">
-        <v>1571.866520528573</v>
+        <v>4919.407932317965</v>
       </c>
       <c r="U21" t="n">
-        <v>1395.529973528541</v>
+        <v>4743.071385317933</v>
       </c>
       <c r="V21" t="n">
-        <v>1196.412455590541</v>
+        <v>4543.953867379932</v>
       </c>
       <c r="W21" t="n">
-        <v>1011.089701323735</v>
+        <v>4358.631113113126</v>
       </c>
       <c r="X21" t="n">
-        <v>856.2222655626148</v>
+        <v>4203.763677352006</v>
       </c>
       <c r="Y21" t="n">
-        <v>729.7364863418355</v>
+        <v>4077.277898131227</v>
       </c>
     </row>
     <row r="22">
@@ -5884,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>982.1554751127505</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C22" t="n">
-        <v>809.5937635959755</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D22" t="n">
-        <v>643.7157707974982</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E22" t="n">
-        <v>473.9577670482354</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F22" t="n">
-        <v>407.7542895545774</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G22" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H22" t="n">
         <v>102.2608402707796</v>
@@ -5932,28 +5934,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R22" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T22" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U22" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V22" t="n">
-        <v>1726.993304878938</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W22" t="n">
-        <v>1454.96690046523</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X22" t="n">
-        <v>1209.575145798642</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y22" t="n">
-        <v>982.1554751127505</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="23">
@@ -5975,13 +5977,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
@@ -5993,10 +5995,10 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L23" t="n">
-        <v>2446.925785934734</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="M23" t="n">
-        <v>2446.925785934734</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N23" t="n">
         <v>2588.899621423627</v>
@@ -6026,13 +6028,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W23" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X23" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y23" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="24">
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>845.683004334921</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C25" t="n">
-        <v>673.1212928181459</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D25" t="n">
-        <v>673.1212928181459</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E25" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F25" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G25" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H25" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6172,25 +6174,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2593.607408118105</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T25" t="n">
-        <v>2347.72796169656</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U25" t="n">
-        <v>2069.294960949665</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V25" t="n">
-        <v>1782.339452820096</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W25" t="n">
-        <v>1510.313048406387</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X25" t="n">
-        <v>1264.9212937398</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y25" t="n">
-        <v>1037.501623053908</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="26">
@@ -6212,13 +6214,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
@@ -6227,22 +6229,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K26" t="n">
-        <v>936.6111322289576</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L26" t="n">
-        <v>2011.671098481817</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M26" t="n">
-        <v>2011.671098481817</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N26" t="n">
-        <v>2758.053686176683</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O26" t="n">
-        <v>3738.23335274699</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P26" t="n">
-        <v>4566.543227580386</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q26" t="n">
         <v>5113.04201353898</v>
@@ -6263,13 +6265,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W26" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X26" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y26" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="27">
@@ -6306,19 +6308,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L27" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M27" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N27" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O27" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P27" t="n">
         <v>1107.588885023173</v>
@@ -6358,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1090.187678435286</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C28" t="n">
-        <v>917.6259669185112</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D28" t="n">
-        <v>751.7479741200339</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E28" t="n">
-        <v>581.9899703707711</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F28" t="n">
-        <v>405.2829163325273</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G28" t="n">
-        <v>239.691641358355</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H28" t="n">
         <v>102.2608402707796</v>
@@ -6409,25 +6411,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T28" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U28" t="n">
-        <v>2313.799635050031</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V28" t="n">
-        <v>2026.844126920461</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W28" t="n">
-        <v>1754.817722506753</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X28" t="n">
-        <v>1509.425967840165</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y28" t="n">
-        <v>1282.006297154273</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="29">
@@ -6437,7 +6439,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C29" t="n">
         <v>2090.757574835212</v>
@@ -6449,13 +6451,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004236</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436399</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
@@ -6464,49 +6466,49 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K29" t="n">
-        <v>1371.865819681875</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="L29" t="n">
-        <v>1431.851786213077</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="M29" t="n">
-        <v>2588.899621423628</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N29" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O29" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P29" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q29" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R29" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S29" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T29" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U29" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V29" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W29" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X29" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y29" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="30">
@@ -6537,31 +6539,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J30" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K30" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L30" t="n">
-        <v>1107.588885023173</v>
+        <v>1056.803889081883</v>
       </c>
       <c r="M30" t="n">
-        <v>1107.588885023173</v>
+        <v>1056.803889081883</v>
       </c>
       <c r="N30" t="n">
-        <v>1107.588885023173</v>
+        <v>1056.803889081883</v>
       </c>
       <c r="O30" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P30" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q30" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R30" t="n">
         <v>1765.500601749588</v>
@@ -6595,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>790.3368563937634</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C31" t="n">
-        <v>617.7751448769883</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D31" t="n">
-        <v>451.897152078511</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E31" t="n">
-        <v>282.1391483292483</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F31" t="n">
-        <v>242.1630145804051</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G31" t="n">
-        <v>242.1630145804051</v>
+        <v>330.8229638057297</v>
       </c>
       <c r="H31" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6643,28 +6645,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2538.261260176947</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T31" t="n">
-        <v>2292.381813755403</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U31" t="n">
-        <v>2013.948813008508</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V31" t="n">
-        <v>1726.993304878938</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W31" t="n">
-        <v>1454.96690046523</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X31" t="n">
-        <v>1209.575145798642</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y31" t="n">
-        <v>982.1554751127505</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="32">
@@ -6686,13 +6688,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
@@ -6704,16 +6706,16 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L32" t="n">
-        <v>1371.865819681875</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M32" t="n">
-        <v>2528.913654892426</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N32" t="n">
-        <v>3654.644638328873</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O32" t="n">
-        <v>3654.644638328873</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P32" t="n">
         <v>4397.38916282733</v>
@@ -6737,13 +6739,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W32" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X32" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y32" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="33">
@@ -6911,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C35" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D35" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E35" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436408</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
@@ -6941,46 +6943,46 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L35" t="n">
-        <v>2446.925785934734</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="M35" t="n">
-        <v>2588.899621423628</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N35" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O35" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P35" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q35" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R35" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S35" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T35" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U35" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V35" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X35" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="36">
@@ -7017,22 +7019,22 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L36" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M36" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N36" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O36" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P36" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q36" t="n">
         <v>1648.327823655249</v>
@@ -7069,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>790.3368563937634</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C37" t="n">
-        <v>617.7751448769883</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D37" t="n">
-        <v>451.897152078511</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E37" t="n">
-        <v>282.1391483292483</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F37" t="n">
         <v>267.852115244952</v>
@@ -7117,28 +7119,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T37" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U37" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V37" t="n">
-        <v>1726.993304878938</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W37" t="n">
-        <v>1454.96690046523</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X37" t="n">
-        <v>1209.575145798642</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y37" t="n">
-        <v>982.1554751127505</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="38">
@@ -7148,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C38" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D38" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E38" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436408</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
@@ -7181,43 +7183,43 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>2588.899621423628</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N38" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O38" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P38" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V38" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W38" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X38" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="39">
@@ -7254,22 +7256,22 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K39" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L39" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M39" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N39" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O39" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P39" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q39" t="n">
         <v>1648.327823655249</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1181.319000882661</v>
+        <v>3346.878440713112</v>
       </c>
       <c r="C40" t="n">
-        <v>1008.757289365886</v>
+        <v>3174.316729196337</v>
       </c>
       <c r="D40" t="n">
-        <v>842.8792965674086</v>
+        <v>3008.43873639786</v>
       </c>
       <c r="E40" t="n">
-        <v>673.1212928181459</v>
+        <v>2838.680732648597</v>
       </c>
       <c r="F40" t="n">
-        <v>496.4142387799021</v>
+        <v>2661.973678610354</v>
       </c>
       <c r="G40" t="n">
-        <v>330.8229638057298</v>
+        <v>2496.382403636181</v>
       </c>
       <c r="H40" t="n">
-        <v>190.9207894961043</v>
+        <v>2496.382403636181</v>
       </c>
       <c r="I40" t="n">
-        <v>102.2608402707796</v>
+        <v>2496.382403636181</v>
       </c>
       <c r="J40" t="n">
-        <v>188.8405254354695</v>
+        <v>2582.962088800871</v>
       </c>
       <c r="K40" t="n">
-        <v>463.598980006605</v>
+        <v>2857.720543372006</v>
       </c>
       <c r="L40" t="n">
-        <v>881.8088617745661</v>
+        <v>3275.930425139967</v>
       </c>
       <c r="M40" t="n">
-        <v>1341.292728955479</v>
+        <v>3735.41429232088</v>
       </c>
       <c r="N40" t="n">
-        <v>1783.551532113124</v>
+        <v>4177.673095478524</v>
       </c>
       <c r="O40" t="n">
-        <v>2203.220781338905</v>
+        <v>4597.342344704307</v>
       </c>
       <c r="P40" t="n">
-        <v>2550.727675309247</v>
+        <v>4944.849238674648</v>
       </c>
       <c r="Q40" t="n">
-        <v>2718.920450173579</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R40" t="n">
-        <v>2718.920450173579</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S40" t="n">
-        <v>2718.920450173579</v>
+        <v>5094.802844496296</v>
       </c>
       <c r="T40" t="n">
-        <v>2683.3639582443</v>
+        <v>4848.923398074751</v>
       </c>
       <c r="U40" t="n">
-        <v>2404.930957497405</v>
+        <v>4570.490397327857</v>
       </c>
       <c r="V40" t="n">
-        <v>2117.975449367836</v>
+        <v>4283.534889198288</v>
       </c>
       <c r="W40" t="n">
-        <v>1845.949044954127</v>
+        <v>4011.508484784579</v>
       </c>
       <c r="X40" t="n">
-        <v>1600.55729028754</v>
+        <v>3766.116730117991</v>
       </c>
       <c r="Y40" t="n">
-        <v>1373.137619601648</v>
+        <v>3538.6970594321</v>
       </c>
     </row>
     <row r="41">
@@ -7400,7 +7402,7 @@
         <v>793.2056155771595</v>
       </c>
       <c r="G41" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H41" t="n">
         <v>102.6776296436396</v>
@@ -7409,31 +7411,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J41" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K41" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L41" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M41" t="n">
-        <v>2588.899621423628</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N41" t="n">
-        <v>2588.899621423628</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O41" t="n">
-        <v>3569.079287993934</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P41" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q41" t="n">
-        <v>4943.887948785925</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R41" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S41" t="n">
         <v>5029.390139722817</v>
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>608.4325852620724</v>
+        <v>3955.973997051464</v>
       </c>
       <c r="C42" t="n">
-        <v>501.9761240987147</v>
+        <v>3849.517535888106</v>
       </c>
       <c r="D42" t="n">
-        <v>406.885835245268</v>
+        <v>3754.427247034659</v>
       </c>
       <c r="E42" t="n">
-        <v>312.7654205722217</v>
+        <v>3660.306832361613</v>
       </c>
       <c r="F42" t="n">
-        <v>229.3815821883833</v>
+        <v>3576.922993977775</v>
       </c>
       <c r="G42" t="n">
-        <v>143.9964924545671</v>
+        <v>3491.537904243959</v>
       </c>
       <c r="H42" t="n">
-        <v>102.2608402707796</v>
+        <v>3449.802252060171</v>
       </c>
       <c r="I42" t="n">
-        <v>128.3245134312372</v>
+        <v>3475.865925220629</v>
       </c>
       <c r="J42" t="n">
-        <v>452.8828383974496</v>
+        <v>3800.424250186841</v>
       </c>
       <c r="K42" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812565</v>
       </c>
       <c r="L42" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812565</v>
       </c>
       <c r="M42" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812565</v>
       </c>
       <c r="N42" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812565</v>
       </c>
       <c r="O42" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812565</v>
       </c>
       <c r="P42" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812565</v>
       </c>
       <c r="Q42" t="n">
-        <v>1648.327823655249</v>
+        <v>4995.86923544464</v>
       </c>
       <c r="R42" t="n">
-        <v>1765.500601749588</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S42" t="n">
-        <v>1702.045164197971</v>
+        <v>5049.586575987363</v>
       </c>
       <c r="T42" t="n">
-        <v>1571.866520528573</v>
+        <v>4919.407932317965</v>
       </c>
       <c r="U42" t="n">
-        <v>1395.529973528541</v>
+        <v>4743.071385317933</v>
       </c>
       <c r="V42" t="n">
-        <v>1196.412455590541</v>
+        <v>4543.953867379932</v>
       </c>
       <c r="W42" t="n">
-        <v>1011.089701323735</v>
+        <v>4358.631113113126</v>
       </c>
       <c r="X42" t="n">
-        <v>856.2222655626148</v>
+        <v>4203.763677352006</v>
       </c>
       <c r="Y42" t="n">
-        <v>729.7364863418355</v>
+        <v>4077.277898131227</v>
       </c>
     </row>
     <row r="43">
@@ -7543,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1181.319000882661</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C43" t="n">
-        <v>1008.757289365886</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D43" t="n">
-        <v>842.8792965674086</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E43" t="n">
-        <v>673.1212928181459</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F43" t="n">
-        <v>496.4142387799021</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G43" t="n">
-        <v>330.8229638057298</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="H43" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I43" t="n">
         <v>102.2608402707796</v>
@@ -7609,10 +7611,10 @@
         <v>1635.626090461861</v>
       </c>
       <c r="X43" t="n">
-        <v>1600.55729028754</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y43" t="n">
-        <v>1373.137619601648</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>595.8703048453069</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C44" t="n">
-        <v>595.8703048453069</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D44" t="n">
-        <v>595.8703048453069</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E44" t="n">
-        <v>595.8703048453069</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F44" t="n">
-        <v>595.8703048453069</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G44" t="n">
-        <v>194.4724734685708</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H44" t="n">
-        <v>53.40121652862856</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I44" t="n">
-        <v>53.40121652862856</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J44" t="n">
-        <v>488.6559039815464</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K44" t="n">
-        <v>1149.495958523325</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L44" t="n">
-        <v>1293.567921177998</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M44" t="n">
-        <v>1293.567921177998</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N44" t="n">
-        <v>1293.567921177998</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O44" t="n">
-        <v>1293.567921177998</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P44" t="n">
-        <v>1954.407975719776</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q44" t="n">
-        <v>2500.906761678371</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R44" t="n">
-        <v>2670.060826431428</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S44" t="n">
-        <v>2670.060826431428</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T44" t="n">
-        <v>2449.993599304466</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U44" t="n">
-        <v>2190.771296621483</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V44" t="n">
-        <v>1828.15434655531</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W44" t="n">
-        <v>1423.298891966343</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X44" t="n">
-        <v>1004.156428545654</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y44" t="n">
-        <v>595.8703048453069</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>559.5729615199214</v>
+        <v>3955.973997051464</v>
       </c>
       <c r="C45" t="n">
-        <v>453.1165003565636</v>
+        <v>3849.517535888106</v>
       </c>
       <c r="D45" t="n">
-        <v>358.0262115031169</v>
+        <v>3754.427247034659</v>
       </c>
       <c r="E45" t="n">
-        <v>263.9057968300706</v>
+        <v>3660.306832361613</v>
       </c>
       <c r="F45" t="n">
-        <v>180.5219584462322</v>
+        <v>3576.922993977775</v>
       </c>
       <c r="G45" t="n">
-        <v>95.13686871241609</v>
+        <v>3491.537904243959</v>
       </c>
       <c r="H45" t="n">
-        <v>53.40121652862856</v>
+        <v>3449.802252060171</v>
       </c>
       <c r="I45" t="n">
-        <v>79.46488968908616</v>
+        <v>3475.865925220629</v>
       </c>
       <c r="J45" t="n">
-        <v>404.0232146552985</v>
+        <v>3800.424250186841</v>
       </c>
       <c r="K45" t="n">
-        <v>1058.729261281022</v>
+        <v>4455.130296812565</v>
       </c>
       <c r="L45" t="n">
-        <v>1058.729261281022</v>
+        <v>4455.130296812565</v>
       </c>
       <c r="M45" t="n">
-        <v>1058.729261281022</v>
+        <v>4455.130296812565</v>
       </c>
       <c r="N45" t="n">
-        <v>1058.729261281022</v>
+        <v>4455.130296812565</v>
       </c>
       <c r="O45" t="n">
-        <v>1058.729261281022</v>
+        <v>4455.130296812565</v>
       </c>
       <c r="P45" t="n">
-        <v>1058.729261281022</v>
+        <v>4455.130296812565</v>
       </c>
       <c r="Q45" t="n">
-        <v>1599.468199913098</v>
+        <v>4995.86923544464</v>
       </c>
       <c r="R45" t="n">
-        <v>1716.640978007438</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S45" t="n">
-        <v>1653.185540455821</v>
+        <v>5049.586575987363</v>
       </c>
       <c r="T45" t="n">
-        <v>1523.006896786422</v>
+        <v>4919.407932317965</v>
       </c>
       <c r="U45" t="n">
-        <v>1346.67034978639</v>
+        <v>4743.071385317933</v>
       </c>
       <c r="V45" t="n">
-        <v>1147.55283184839</v>
+        <v>4543.953867379932</v>
       </c>
       <c r="W45" t="n">
-        <v>962.2300775815838</v>
+        <v>4358.631113113126</v>
       </c>
       <c r="X45" t="n">
-        <v>807.3626418204638</v>
+        <v>4203.763677352006</v>
       </c>
       <c r="Y45" t="n">
-        <v>680.8768625996845</v>
+        <v>4077.277898131227</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>741.4772326516122</v>
+        <v>3346.878440713112</v>
       </c>
       <c r="C46" t="n">
-        <v>731.3355420887848</v>
+        <v>3174.316729196337</v>
       </c>
       <c r="D46" t="n">
-        <v>565.4575492903075</v>
+        <v>3008.43873639786</v>
       </c>
       <c r="E46" t="n">
-        <v>395.6995455410447</v>
+        <v>2838.680732648597</v>
       </c>
       <c r="F46" t="n">
-        <v>218.9924915028009</v>
+        <v>2661.973678610354</v>
       </c>
       <c r="G46" t="n">
-        <v>53.40121652862856</v>
+        <v>2496.382403636181</v>
       </c>
       <c r="H46" t="n">
-        <v>53.40121652862856</v>
+        <v>2496.382403636181</v>
       </c>
       <c r="I46" t="n">
-        <v>53.40121652862856</v>
+        <v>2496.382403636181</v>
       </c>
       <c r="J46" t="n">
-        <v>139.9809016933183</v>
+        <v>2582.962088800871</v>
       </c>
       <c r="K46" t="n">
-        <v>414.7393562644539</v>
+        <v>2857.720543372006</v>
       </c>
       <c r="L46" t="n">
-        <v>832.949238032415</v>
+        <v>3275.930425139967</v>
       </c>
       <c r="M46" t="n">
-        <v>1292.433105213328</v>
+        <v>3735.41429232088</v>
       </c>
       <c r="N46" t="n">
-        <v>1734.691908370972</v>
+        <v>4177.673095478524</v>
       </c>
       <c r="O46" t="n">
-        <v>2154.361157596754</v>
+        <v>4597.342344704307</v>
       </c>
       <c r="P46" t="n">
-        <v>2501.868051567096</v>
+        <v>4944.849238674648</v>
       </c>
       <c r="Q46" t="n">
-        <v>2670.060826431428</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R46" t="n">
-        <v>2648.6430051368</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S46" t="n">
-        <v>2489.401636434796</v>
+        <v>5094.802844496296</v>
       </c>
       <c r="T46" t="n">
-        <v>2243.522190013251</v>
+        <v>4848.923398074751</v>
       </c>
       <c r="U46" t="n">
-        <v>1965.089189266357</v>
+        <v>4570.490397327857</v>
       </c>
       <c r="V46" t="n">
-        <v>1678.133681136787</v>
+        <v>4283.534889198288</v>
       </c>
       <c r="W46" t="n">
-        <v>1406.107276723079</v>
+        <v>4011.508484784579</v>
       </c>
       <c r="X46" t="n">
-        <v>1160.715522056491</v>
+        <v>3766.116730117991</v>
       </c>
       <c r="Y46" t="n">
-        <v>933.2958513705994</v>
+        <v>3538.6970594321</v>
       </c>
     </row>
   </sheetData>
@@ -7976,13 +7978,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="L2" t="n">
-        <v>145.5272350047208</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -7991,7 +7993,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>585.1784344521125</v>
       </c>
       <c r="P2" t="n">
         <v>667.5152066078572</v>
@@ -8058,7 +8060,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8073,7 +8075,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>546.2009481132077</v>
@@ -8213,31 +8215,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>88.52591951400984</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
         <v>667.5152066078572</v>
       </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8289,31 +8291,31 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.32694258632081</v>
+        <v>20.13097499434632</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>200.3264657984391</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8450,7 +8452,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
         <v>667.515206607857</v>
@@ -8465,16 +8467,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>585.1784344521124</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="P8" t="n">
-        <v>667.515206607857</v>
+        <v>316.3899266744752</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8529,10 +8531,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8541,13 +8543,13 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>321.6407242930886</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
         <v>546.2009481132077</v>
@@ -8687,16 +8689,16 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>667.515206607857</v>
+        <v>585.1784344521125</v>
       </c>
       <c r="L11" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -8705,7 +8707,7 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157522</v>
@@ -8766,10 +8768,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>667.515206607857</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8778,7 +8780,7 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>321.6407242930886</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8927,28 +8929,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>667.515206607857</v>
+        <v>145.5272350047206</v>
       </c>
       <c r="L14" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="P14" t="n">
-        <v>316.389926674475</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9006,7 +9008,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9021,7 +9023,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9164,22 +9166,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>145.5272350047205</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>667.515206607857</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q17" t="n">
         <v>552.0189757157522</v>
@@ -9237,13 +9239,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>667.515206607857</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9255,7 +9257,7 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>20.13097499434639</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -9407,10 +9409,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9474,13 +9476,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9492,16 +9494,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>852.0369646460714</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9641,13 +9643,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
-        <v>1085.919157831171</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
@@ -9875,25 +9877,25 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>753.9218057523904</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -9954,7 +9956,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9969,7 +9971,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
@@ -10112,16 +10114,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>60.59188538505214</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>935.0031416802852</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
@@ -10185,16 +10187,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>964.1848977889938</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10203,16 +10205,16 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>715.8552653209142</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10352,19 +10354,19 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>750.2469944428849</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q32" t="n">
         <v>552.0189757157522</v>
@@ -10589,13 +10591,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
-        <v>1085.919157831171</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="M35" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
@@ -10665,7 +10667,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10674,7 +10676,7 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>1207.52018712909</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -10683,7 +10685,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
         <v>118.3563415094341</v>
@@ -10829,10 +10831,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -10902,13 +10904,13 @@
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>1207.52018712909</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -10920,7 +10922,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
         <v>118.3563415094341</v>
@@ -11057,31 +11059,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L41" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>143.4079146352456</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P41" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11297,22 +11299,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>667.515206607857</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>145.5272350047205</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
-        <v>667.515206607857</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157522</v>
@@ -11376,7 +11378,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11452,7 +11454,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
@@ -22544,25 +22546,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>183.1289159214369</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>154.0764661133799</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22598,13 +22600,13 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -22711,19 +22713,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>84.63380825304843</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="H4" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22750,7 +22752,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -22781,28 +22783,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>423.5887552948843</v>
+        <v>369.1917910932736</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22832,25 +22834,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>64.50947555382311</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -22954,10 +22956,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>65.48800580459427</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -22987,7 +22989,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>157.6489550149833</v>
@@ -22996,7 +22998,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>208.2197249473428</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -23024,19 +23026,19 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>336.0812019346619</v>
       </c>
       <c r="G8" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
         <v>0.4126214791313976</v>
@@ -23078,7 +23080,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>120.3231511408023</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -23191,13 +23193,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23227,13 +23229,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>208.2197249473428</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -23255,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23270,10 +23272,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>212.2740800673732</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
         <v>0.4126214791313976</v>
@@ -23318,13 +23320,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864824</v>
+        <v>369.0353499799955</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23428,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,13 +23466,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>208.2197249473428</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23492,13 +23494,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23507,13 +23509,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23552,13 +23554,13 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>239.2811952849153</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.0353499799955</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23668,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,13 +23703,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>208.2197249473428</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23729,10 +23731,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23741,13 +23743,13 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23780,19 +23782,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>64.3027817799458</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23905,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,13 +23940,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>208.2197249473428</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24124,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24136,13 +24138,13 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>109.3985407791399</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
         <v>87.77334973307141</v>
@@ -24172,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24367,10 +24369,10 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24379,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,7 +24414,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>33.58904338006411</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24616,7 +24618,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>2.446659489829642</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
         <v>87.77334973307141</v>
@@ -24649,13 +24651,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24847,16 +24849,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>135.3636110865066</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24895,7 +24897,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>208.2197249473435</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25321,7 +25323,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>160.795820744408</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25357,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25564,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,10 +25599,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627253</v>
       </c>
       <c r="T40" t="n">
-        <v>208.2197249473433</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25801,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>120.446375214272</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25849,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>208.2197249473434</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25862,28 +25864,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>146.5783086406731</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -26023,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>160.7958207444082</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26068,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>139.5921776627253</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>465699.6043113678</v>
+        <v>465699.6043113677</v>
       </c>
     </row>
     <row r="4">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>465699.6043113676</v>
+        <v>725498.9124939644</v>
       </c>
     </row>
     <row r="8">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>725498.9124939643</v>
+        <v>725498.9124939644</v>
       </c>
     </row>
     <row r="12">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>725498.9124939644</v>
+        <v>725498.9124939643</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>465699.6043113677</v>
+        <v>725498.9124939644</v>
       </c>
     </row>
   </sheetData>
@@ -26317,7 +26319,7 @@
         <v>160640.833517505</v>
       </c>
       <c r="D2" t="n">
-        <v>160640.8335175049</v>
+        <v>160640.833517505</v>
       </c>
       <c r="E2" t="n">
         <v>160640.833517505</v>
@@ -26326,13 +26328,13 @@
         <v>160640.833517505</v>
       </c>
       <c r="G2" t="n">
-        <v>160640.833517505</v>
+        <v>250257.3524652424</v>
       </c>
       <c r="H2" t="n">
         <v>250257.3524652424</v>
       </c>
       <c r="I2" t="n">
-        <v>250257.3524652423</v>
+        <v>250257.3524652424</v>
       </c>
       <c r="J2" t="n">
         <v>250257.3524652424</v>
@@ -26353,7 +26355,7 @@
         <v>250257.3524652424</v>
       </c>
       <c r="P2" t="n">
-        <v>160640.833517505</v>
+        <v>250257.3524652424</v>
       </c>
     </row>
     <row r="3">
@@ -26378,10 +26380,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>167396.1246670934</v>
       </c>
       <c r="H3" t="n">
-        <v>164784.5777780755</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26402,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>146976.4664146549</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26421,16 +26423,16 @@
         <v>35023.37484795162</v>
       </c>
       <c r="D4" t="n">
-        <v>35023.37484795161</v>
+        <v>35023.37484795162</v>
       </c>
       <c r="E4" t="n">
-        <v>35023.37484795161</v>
+        <v>35023.37484795162</v>
       </c>
       <c r="F4" t="n">
         <v>35023.37484795162</v>
       </c>
       <c r="G4" t="n">
-        <v>35023.37484795161</v>
+        <v>54561.82510962276</v>
       </c>
       <c r="H4" t="n">
         <v>54561.82510962276</v>
@@ -26442,7 +26444,7 @@
         <v>54561.82510962275</v>
       </c>
       <c r="K4" t="n">
-        <v>54561.82510962278</v>
+        <v>54561.82510962275</v>
       </c>
       <c r="L4" t="n">
         <v>54561.82510962276</v>
@@ -26454,10 +26456,10 @@
         <v>54561.82510962276</v>
       </c>
       <c r="O4" t="n">
+        <v>54561.82510962275</v>
+      </c>
+      <c r="P4" t="n">
         <v>54561.82510962276</v>
-      </c>
-      <c r="P4" t="n">
-        <v>35023.37484795161</v>
       </c>
     </row>
     <row r="5">
@@ -26473,43 +26475,43 @@
         <v>74212.52456175772</v>
       </c>
       <c r="D5" t="n">
-        <v>74212.5245617577</v>
+        <v>74212.52456175772</v>
       </c>
       <c r="E5" t="n">
-        <v>40584.9245617577</v>
+        <v>40584.92456175771</v>
       </c>
       <c r="F5" t="n">
-        <v>40584.9245617577</v>
+        <v>40584.92456175771</v>
       </c>
       <c r="G5" t="n">
-        <v>40584.9245617577</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="H5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="I5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="J5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="K5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="L5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="M5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="N5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="O5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="P5" t="n">
-        <v>40584.9245617577</v>
+        <v>77718.2386057925</v>
       </c>
     </row>
     <row r="6">
@@ -26522,28 +26524,28 @@
         <v>-172294.7644762492</v>
       </c>
       <c r="C6" t="n">
+        <v>51404.93410779563</v>
+      </c>
+      <c r="D6" t="n">
         <v>51404.93410779566</v>
       </c>
-      <c r="D6" t="n">
-        <v>51404.93410779563</v>
-      </c>
       <c r="E6" t="n">
-        <v>85032.53410779571</v>
+        <v>85032.53410779567</v>
       </c>
       <c r="F6" t="n">
-        <v>85032.53410779565</v>
+        <v>85032.53410779567</v>
       </c>
       <c r="G6" t="n">
-        <v>85032.53410779565</v>
+        <v>-49418.83591726629</v>
       </c>
       <c r="H6" t="n">
-        <v>-46807.28902824843</v>
+        <v>117977.2887498271</v>
       </c>
       <c r="I6" t="n">
-        <v>117977.288749827</v>
+        <v>117977.2887498271</v>
       </c>
       <c r="J6" t="n">
-        <v>-56674.05996787908</v>
+        <v>-56674.05996787906</v>
       </c>
       <c r="K6" t="n">
         <v>117977.2887498271</v>
@@ -26558,10 +26560,10 @@
         <v>117977.2887498271</v>
       </c>
       <c r="O6" t="n">
+        <v>-28999.1776648278</v>
+      </c>
+      <c r="P6" t="n">
         <v>117977.2887498271</v>
-      </c>
-      <c r="P6" t="n">
-        <v>85032.53410779565</v>
       </c>
     </row>
   </sheetData>
@@ -26793,16 +26795,16 @@
         <v>667.5152066078571</v>
       </c>
       <c r="D4" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="E4" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="F4" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="G4" t="n">
-        <v>667.515206607857</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="H4" t="n">
         <v>1278.260503384745</v>
@@ -26829,7 +26831,7 @@
         <v>1278.260503384745</v>
       </c>
       <c r="P4" t="n">
-        <v>667.515206607857</v>
+        <v>1278.260503384745</v>
       </c>
     </row>
   </sheetData>
@@ -27024,10 +27026,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>610.745296776888</v>
       </c>
       <c r="H4" t="n">
-        <v>610.7452967768884</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27048,7 +27050,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>610.745296776888</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27270,10 +27272,10 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>610.745296776888</v>
       </c>
       <c r="P4" t="n">
-        <v>610.7452967768884</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34696,13 +34698,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="L2" t="n">
-        <v>145.5272350047208</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -34711,7 +34713,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>585.1784344521125</v>
       </c>
       <c r="P2" t="n">
         <v>667.5152066078572</v>
@@ -34778,7 +34780,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -34793,7 +34795,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>546.2009481132077</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>88.52591951400984</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
         <v>667.5152066078572</v>
       </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35009,31 +35011,31 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.3269425863208</v>
+        <v>20.13097499434632</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>200.3264657984391</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,7 +35093,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -35170,7 +35172,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
         <v>667.515206607857</v>
@@ -35185,16 +35187,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>585.1784344521124</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="P8" t="n">
-        <v>667.515206607857</v>
+        <v>316.3899266744752</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35246,13 +35248,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35261,13 +35263,13 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>321.6407242930886</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
         <v>546.2009481132077</v>
@@ -35407,16 +35409,16 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>667.515206607857</v>
+        <v>585.1784344521125</v>
       </c>
       <c r="L11" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -35425,7 +35427,7 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157523</v>
@@ -35483,13 +35485,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>667.515206607857</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35498,7 +35500,7 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>321.6407242930886</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -35647,28 +35649,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>667.515206607857</v>
+        <v>145.5272350047206</v>
       </c>
       <c r="L14" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="P14" t="n">
-        <v>316.389926674475</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,13 +35722,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J15" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35741,7 +35743,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -35884,28 +35886,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>145.5272350047205</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>667.515206607857</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q17" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,13 +35959,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J18" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>667.515206607857</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35975,7 +35977,7 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>20.13097499434639</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36039,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
@@ -36048,13 +36050,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N19" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P19" t="n">
         <v>351.017064616507</v>
@@ -36127,10 +36129,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
@@ -36194,13 +36196,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632091</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36212,16 +36214,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>852.0369646460714</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>546.2009481132081</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
@@ -36361,13 +36363,13 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L23" t="n">
-        <v>1085.919157831171</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
@@ -36431,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J24" t="n">
         <v>327.836691885063</v>
@@ -36513,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K25" t="n">
         <v>277.5337924960966</v>
@@ -36595,25 +36597,25 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>753.9218057523904</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36668,13 +36670,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J27" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -36689,7 +36691,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
@@ -36750,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K28" t="n">
         <v>277.5337924960966</v>
@@ -36832,16 +36834,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850282</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>60.59188538505214</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>935.0031416802852</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
@@ -36905,16 +36907,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>964.1848977889938</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -36923,16 +36925,16 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>715.8552653209142</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K31" t="n">
         <v>277.5337924960966</v>
@@ -37072,19 +37074,19 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>750.2469944428849</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q32" t="n">
         <v>552.0189757157523</v>
@@ -37142,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J33" t="n">
         <v>327.836691885063</v>
@@ -37224,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K34" t="n">
         <v>277.5337924960966</v>
@@ -37309,13 +37311,13 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L35" t="n">
-        <v>1085.919157831171</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="M35" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
@@ -37379,13 +37381,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J36" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37394,7 +37396,7 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>1207.52018712909</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -37403,7 +37405,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
         <v>118.3563415094341</v>
@@ -37461,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K37" t="n">
         <v>277.5337924960966</v>
@@ -37549,10 +37551,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
@@ -37616,19 +37618,19 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J39" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>1207.52018712909</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -37640,7 +37642,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
         <v>118.3563415094341</v>
@@ -37698,13 +37700,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K40" t="n">
-        <v>277.5337924960966</v>
+        <v>277.5337924960963</v>
       </c>
       <c r="L40" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M40" t="n">
         <v>464.1251183645586</v>
@@ -37713,13 +37715,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P40" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q40" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L41" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>143.4079146352456</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,10 +37855,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.32694258632081</v>
+        <v>26.32694258632091</v>
       </c>
       <c r="J42" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K42" t="n">
         <v>661.3192390158824</v>
@@ -37877,7 +37879,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>546.2009481132077</v>
+        <v>546.2009481132081</v>
       </c>
       <c r="R42" t="n">
         <v>118.3563415094341</v>
@@ -37935,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
@@ -38017,28 +38019,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>667.515206607857</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L44" t="n">
-        <v>145.5272350047205</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
-        <v>667.515206607857</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.32694258632081</v>
+        <v>26.32694258632091</v>
       </c>
       <c r="J45" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38114,7 +38116,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>546.2009481132077</v>
+        <v>546.2009481132081</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
@@ -38175,10 +38177,10 @@
         <v>87.45422743908057</v>
       </c>
       <c r="K46" t="n">
-        <v>277.5337924960966</v>
+        <v>277.5337924960963</v>
       </c>
       <c r="L46" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M46" t="n">
         <v>464.1251183645586</v>
@@ -38187,13 +38189,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P46" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q46" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_4_19.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_4_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>336666.1030777135</v>
+        <v>334001.135609556</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2706694.536732692</v>
+        <v>2706694.536732691</v>
       </c>
     </row>
     <row r="9">
@@ -661,25 +661,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>54.55340531488891</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>132.162386897836</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,19 +712,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
         <v>404.2032624633431</v>
@@ -831,7 +831,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>24.34318456170477</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>144.493775385548</v>
       </c>
       <c r="W4" t="n">
         <v>269.3061403695714</v>
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>433.7610480884109</v>
+        <v>95.46948504263807</v>
       </c>
       <c r="D5" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
-        <v>54.39696420161074</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -1068,13 +1068,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>73.01514676193496</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T7" t="n">
         <v>243.4206519573293</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1144,16 +1144,16 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>87.50755336022249</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>162.5079252179561</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1305,13 +1305,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>24.34318456170476</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>284.0859530482738</v>
+        <v>193.8659438253731</v>
       </c>
       <c r="W10" t="n">
         <v>269.3061403695714</v>
@@ -1369,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>4.041939206540439</v>
       </c>
       <c r="F11" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>45.91568880648689</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
         <v>404.2032624633431</v>
@@ -1542,7 +1542,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>24.34318456170476</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1615,19 +1615,19 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1660,10 +1660,10 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1672,10 +1672,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>45.91568880648689</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>127.0455561693267</v>
       </c>
     </row>
     <row r="15">
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>422.036574780059</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
         <v>433.7610480884109</v>
@@ -1900,7 +1900,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U17" t="n">
-        <v>256.6300796561533</v>
+        <v>256.6300796561544</v>
       </c>
       <c r="V17" t="n">
         <v>358.9907805655117</v>
@@ -2101,7 +2101,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4126214791316623</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2134,7 +2134,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T20" t="n">
-        <v>217.8665548556918</v>
+        <v>217.8665548556926</v>
       </c>
       <c r="U20" t="n">
         <v>256.6300796561533</v>
@@ -2256,7 +2256,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>18.05677735225717</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2493,7 +2493,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>18.05677735225717</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2614,7 +2614,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V26" t="n">
-        <v>358.9907805655118</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W26" t="n">
         <v>400.806900043077</v>
@@ -2730,7 +2730,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>18.05677735225717</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2812,7 +2812,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I29" t="n">
-        <v>0.4126214791316623</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2967,10 +2967,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>18.05677735225717</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3009,7 +3009,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V31" t="n">
-        <v>75.86622810093029</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
         <v>269.3061403695714</v>
@@ -3049,7 +3049,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I32" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791325486</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3438,13 +3438,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>163.9353622244306</v>
+        <v>94.21878984361635</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>18.05677735225796</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
@@ -3915,7 +3915,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>18.05677735225719</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
@@ -4149,13 +4149,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>163.9353622244306</v>
+        <v>94.21878984361635</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>18.05677735225796</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
@@ -4306,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>588.7131977810893</v>
+        <v>1416.332668825485</v>
       </c>
       <c r="C2" t="n">
-        <v>588.7131977810893</v>
+        <v>978.1901960089081</v>
       </c>
       <c r="D2" t="n">
-        <v>588.7131977810893</v>
+        <v>542.2804111833525</v>
       </c>
       <c r="E2" t="n">
-        <v>588.7131977810893</v>
+        <v>108.5056663416477</v>
       </c>
       <c r="F2" t="n">
-        <v>588.7131977810893</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="G2" t="n">
-        <v>187.3153664043532</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H2" t="n">
-        <v>53.81800590148856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I2" t="n">
         <v>53.40121652862857</v>
       </c>
       <c r="J2" t="n">
-        <v>53.40121652862857</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K2" t="n">
-        <v>714.241271070407</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L2" t="n">
-        <v>714.241271070407</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M2" t="n">
-        <v>714.241271070407</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N2" t="n">
-        <v>714.241271070407</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O2" t="n">
         <v>1293.567921177998</v>
@@ -4360,22 +4360,22 @@
         <v>2670.060826431428</v>
       </c>
       <c r="T2" t="n">
-        <v>2449.993599304467</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U2" t="n">
-        <v>2190.771296621484</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V2" t="n">
-        <v>1828.15434655531</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="W2" t="n">
-        <v>1423.298891966344</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="X2" t="n">
-        <v>1423.298891966344</v>
+        <v>2250.918363010739</v>
       </c>
       <c r="Y2" t="n">
-        <v>1015.012768265997</v>
+        <v>1842.632239310392</v>
       </c>
     </row>
     <row r="3">
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>762.8950539462408</v>
+        <v>903.8972536055599</v>
       </c>
       <c r="C4" t="n">
-        <v>590.3333424294657</v>
+        <v>731.3355420887848</v>
       </c>
       <c r="D4" t="n">
-        <v>424.4553496309884</v>
+        <v>565.4575492903075</v>
       </c>
       <c r="E4" t="n">
-        <v>254.6973458817257</v>
+        <v>395.6995455410447</v>
       </c>
       <c r="F4" t="n">
-        <v>77.99029184348186</v>
+        <v>218.9924915028009</v>
       </c>
       <c r="G4" t="n">
-        <v>53.40121652862855</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H4" t="n">
         <v>53.40121652862855</v>
@@ -4524,16 +4524,16 @@
         <v>1986.507010560985</v>
       </c>
       <c r="V4" t="n">
-        <v>1699.551502431416</v>
+        <v>1840.553702090735</v>
       </c>
       <c r="W4" t="n">
-        <v>1427.525098017707</v>
+        <v>1568.527297677026</v>
       </c>
       <c r="X4" t="n">
-        <v>1182.13334335112</v>
+        <v>1323.135543010439</v>
       </c>
       <c r="Y4" t="n">
-        <v>954.7136726652279</v>
+        <v>1095.715872324547</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2107.119422805321</v>
+        <v>1011.477214236518</v>
       </c>
       <c r="C5" t="n">
-        <v>1668.976949988744</v>
+        <v>915.0433909611256</v>
       </c>
       <c r="D5" t="n">
-        <v>1233.067165163189</v>
+        <v>915.0433909611256</v>
       </c>
       <c r="E5" t="n">
-        <v>799.2924203214839</v>
+        <v>481.2686461194209</v>
       </c>
       <c r="F5" t="n">
-        <v>744.3459918350084</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="G5" t="n">
-        <v>342.9481604582723</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H5" t="n">
-        <v>53.81800590148856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I5" t="n">
         <v>53.40121652862857</v>
@@ -4582,37 +4582,37 @@
         <v>1149.495958523325</v>
       </c>
       <c r="O5" t="n">
-        <v>1810.336013065103</v>
+        <v>1462.721985931055</v>
       </c>
       <c r="P5" t="n">
-        <v>1954.407975719777</v>
+        <v>2123.562040472834</v>
       </c>
       <c r="Q5" t="n">
-        <v>2500.906761678372</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R5" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>2586.408952615265</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T5" t="n">
-        <v>2366.341725488304</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U5" t="n">
-        <v>2107.119422805321</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V5" t="n">
-        <v>2107.119422805321</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="W5" t="n">
-        <v>2107.119422805321</v>
+        <v>2265.205371842461</v>
       </c>
       <c r="X5" t="n">
-        <v>2107.119422805321</v>
+        <v>1846.062908421772</v>
       </c>
       <c r="Y5" t="n">
-        <v>2107.119422805321</v>
+        <v>1437.776784721425</v>
       </c>
     </row>
     <row r="6">
@@ -4643,10 +4643,10 @@
         <v>53.40121652862857</v>
       </c>
       <c r="I6" t="n">
-        <v>73.33088177303142</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>397.8892067392438</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
         <v>1058.729261281022</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>900.7186013536161</v>
+        <v>903.8972536055599</v>
       </c>
       <c r="C7" t="n">
-        <v>728.1568898368411</v>
+        <v>731.3355420887848</v>
       </c>
       <c r="D7" t="n">
-        <v>562.2788970383638</v>
+        <v>565.4575492903075</v>
       </c>
       <c r="E7" t="n">
-        <v>392.520893289101</v>
+        <v>395.6995455410447</v>
       </c>
       <c r="F7" t="n">
-        <v>215.8138392508572</v>
+        <v>218.9924915028009</v>
       </c>
       <c r="G7" t="n">
-        <v>215.8138392508572</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H7" t="n">
-        <v>142.0611657539532</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I7" t="n">
-        <v>53.40121652862855</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J7" t="n">
         <v>139.9809016933184</v>
@@ -4749,28 +4749,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S7" t="n">
-        <v>2648.6430051368</v>
+        <v>2651.821657388744</v>
       </c>
       <c r="T7" t="n">
-        <v>2402.763558715255</v>
+        <v>2405.942210967199</v>
       </c>
       <c r="U7" t="n">
-        <v>2124.330557968361</v>
+        <v>2127.509210220304</v>
       </c>
       <c r="V7" t="n">
-        <v>1837.375049838791</v>
+        <v>1840.553702090735</v>
       </c>
       <c r="W7" t="n">
-        <v>1565.348645425083</v>
+        <v>1568.527297677026</v>
       </c>
       <c r="X7" t="n">
-        <v>1319.956890758495</v>
+        <v>1323.135543010439</v>
       </c>
       <c r="Y7" t="n">
-        <v>1092.537220072603</v>
+        <v>1095.715872324547</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1011.477214236518</v>
+        <v>1640.500119716325</v>
       </c>
       <c r="C8" t="n">
-        <v>1011.477214236518</v>
+        <v>1640.500119716325</v>
       </c>
       <c r="D8" t="n">
-        <v>575.5674294109622</v>
+        <v>1204.590334890769</v>
       </c>
       <c r="E8" t="n">
-        <v>141.7926845692573</v>
+        <v>770.8155900490646</v>
       </c>
       <c r="F8" t="n">
-        <v>53.40121652862857</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="G8" t="n">
-        <v>53.40121652862857</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H8" t="n">
-        <v>53.40121652862857</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
         <v>488.6559039815464</v>
@@ -4810,46 +4810,46 @@
         <v>1149.495958523325</v>
       </c>
       <c r="L8" t="n">
-        <v>1149.495958523325</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M8" t="n">
-        <v>1149.495958523325</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N8" t="n">
-        <v>1149.495958523325</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O8" t="n">
-        <v>1810.336013065103</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P8" t="n">
-        <v>2123.562040472834</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>2670.060826431428</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>2670.060826431428</v>
+        <v>2422.259533203188</v>
       </c>
       <c r="U8" t="n">
-        <v>2670.060826431428</v>
+        <v>2422.259533203188</v>
       </c>
       <c r="V8" t="n">
-        <v>2670.060826431428</v>
+        <v>2059.642583137014</v>
       </c>
       <c r="W8" t="n">
-        <v>2265.205371842461</v>
+        <v>2059.642583137014</v>
       </c>
       <c r="X8" t="n">
-        <v>1846.062908421772</v>
+        <v>1640.500119716325</v>
       </c>
       <c r="Y8" t="n">
-        <v>1437.776784721425</v>
+        <v>1640.500119716325</v>
       </c>
     </row>
     <row r="9">
@@ -4877,7 +4877,7 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
         <v>79.46488968908616</v>
@@ -4886,19 +4886,19 @@
         <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
         <v>1058.729261281022</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>762.8950539462408</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C10" t="n">
-        <v>590.3333424294657</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D10" t="n">
-        <v>424.4553496309884</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E10" t="n">
-        <v>254.6973458817257</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
-        <v>77.99029184348186</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>53.40121652862857</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>53.40121652862857</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
         <v>139.9809016933184</v>
@@ -4995,19 +4995,19 @@
         <v>2264.94001130788</v>
       </c>
       <c r="U10" t="n">
-        <v>1986.507010560985</v>
+        <v>2264.94001130788</v>
       </c>
       <c r="V10" t="n">
-        <v>1699.551502431416</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W10" t="n">
-        <v>1427.525098017707</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X10" t="n">
-        <v>1182.13334335112</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y10" t="n">
-        <v>954.7136726652279</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1789.095648603258</v>
+        <v>1176.296188301094</v>
       </c>
       <c r="C11" t="n">
-        <v>1350.953175786681</v>
+        <v>1176.296188301094</v>
       </c>
       <c r="D11" t="n">
-        <v>915.0433909611256</v>
+        <v>1176.296188301094</v>
       </c>
       <c r="E11" t="n">
-        <v>481.2686461194209</v>
+        <v>1172.213421425801</v>
       </c>
       <c r="F11" t="n">
-        <v>53.40121652862857</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="G11" t="n">
-        <v>53.40121652862857</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H11" t="n">
-        <v>53.40121652862857</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I11" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J11" t="n">
-        <v>53.40121652862857</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K11" t="n">
-        <v>632.7278666362199</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L11" t="n">
-        <v>632.7278666362199</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M11" t="n">
-        <v>1293.567921177998</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N11" t="n">
-        <v>1293.567921177998</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O11" t="n">
         <v>1293.567921177998</v>
       </c>
       <c r="P11" t="n">
-        <v>1954.407975719777</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q11" t="n">
-        <v>2500.906761678372</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R11" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S11" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T11" t="n">
-        <v>2670.060826431428</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U11" t="n">
-        <v>2670.060826431428</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="V11" t="n">
-        <v>2670.060826431428</v>
+        <v>2003.72477542213</v>
       </c>
       <c r="W11" t="n">
-        <v>2670.060826431428</v>
+        <v>2003.72477542213</v>
       </c>
       <c r="X11" t="n">
-        <v>2623.681342788512</v>
+        <v>1584.582312001441</v>
       </c>
       <c r="Y11" t="n">
-        <v>2215.395219088166</v>
+        <v>1176.296188301094</v>
       </c>
     </row>
     <row r="12">
@@ -5114,7 +5114,7 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H12" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I12" t="n">
         <v>79.46488968908616</v>
@@ -5123,10 +5123,10 @@
         <v>404.0232146552985</v>
       </c>
       <c r="K12" t="n">
-        <v>1058.729261281022</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L12" t="n">
-        <v>1058.729261281022</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M12" t="n">
         <v>1058.729261281022</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>762.8950539462408</v>
+        <v>903.8972536055599</v>
       </c>
       <c r="C13" t="n">
-        <v>590.3333424294657</v>
+        <v>731.3355420887848</v>
       </c>
       <c r="D13" t="n">
-        <v>424.4553496309884</v>
+        <v>565.4575492903075</v>
       </c>
       <c r="E13" t="n">
-        <v>254.6973458817257</v>
+        <v>395.6995455410447</v>
       </c>
       <c r="F13" t="n">
-        <v>77.99029184348186</v>
+        <v>218.9924915028009</v>
       </c>
       <c r="G13" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H13" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I13" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J13" t="n">
         <v>139.9809016933184</v>
@@ -5226,25 +5226,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S13" t="n">
-        <v>2510.819457729425</v>
+        <v>2651.821657388744</v>
       </c>
       <c r="T13" t="n">
-        <v>2264.94001130788</v>
+        <v>2405.942210967199</v>
       </c>
       <c r="U13" t="n">
-        <v>1986.507010560985</v>
+        <v>2127.509210220304</v>
       </c>
       <c r="V13" t="n">
-        <v>1699.551502431416</v>
+        <v>1840.553702090735</v>
       </c>
       <c r="W13" t="n">
-        <v>1427.525098017707</v>
+        <v>1568.527297677026</v>
       </c>
       <c r="X13" t="n">
-        <v>1182.13334335112</v>
+        <v>1323.135543010439</v>
       </c>
       <c r="Y13" t="n">
-        <v>954.7136726652279</v>
+        <v>1095.715872324547</v>
       </c>
     </row>
     <row r="14">
@@ -5254,52 +5254,52 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1789.095648603258</v>
+        <v>1217.000418100404</v>
       </c>
       <c r="C14" t="n">
-        <v>1350.953175786681</v>
+        <v>778.8579452838278</v>
       </c>
       <c r="D14" t="n">
-        <v>915.0433909611256</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="E14" t="n">
-        <v>481.2686461194209</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="F14" t="n">
-        <v>53.40121652862857</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="G14" t="n">
-        <v>53.40121652862857</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H14" t="n">
-        <v>53.40121652862857</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I14" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J14" t="n">
-        <v>488.6559039815464</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K14" t="n">
-        <v>632.7278666362199</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="L14" t="n">
-        <v>632.7278666362199</v>
+        <v>1179.226652594814</v>
       </c>
       <c r="M14" t="n">
-        <v>632.7278666362199</v>
+        <v>1179.226652594814</v>
       </c>
       <c r="N14" t="n">
-        <v>1293.567921177998</v>
+        <v>1179.226652594814</v>
       </c>
       <c r="O14" t="n">
-        <v>1954.407975719777</v>
+        <v>1840.066707136593</v>
       </c>
       <c r="P14" t="n">
-        <v>1954.407975719777</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="Q14" t="n">
-        <v>2500.906761678372</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R14" t="n">
         <v>2670.060826431428</v>
@@ -5308,22 +5308,22 @@
         <v>2670.060826431428</v>
       </c>
       <c r="T14" t="n">
-        <v>2670.060826431428</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U14" t="n">
-        <v>2670.060826431428</v>
+        <v>2190.771296621483</v>
       </c>
       <c r="V14" t="n">
-        <v>2670.060826431428</v>
+        <v>2190.771296621483</v>
       </c>
       <c r="W14" t="n">
-        <v>2670.060826431428</v>
+        <v>2190.771296621483</v>
       </c>
       <c r="X14" t="n">
-        <v>2623.681342788512</v>
+        <v>1771.628833200794</v>
       </c>
       <c r="Y14" t="n">
-        <v>2215.395219088166</v>
+        <v>1643.299988585312</v>
       </c>
     </row>
     <row r="15">
@@ -5351,7 +5351,7 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H15" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I15" t="n">
         <v>79.46488968908616</v>
@@ -5427,13 +5427,13 @@
         <v>218.9924915028009</v>
       </c>
       <c r="G16" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H16" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I16" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J16" t="n">
         <v>139.9809016933184</v>
@@ -5506,7 +5506,7 @@
         <v>793.2056155771595</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H17" t="n">
         <v>102.6776296436396</v>
@@ -5524,28 +5524,28 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N17" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O17" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P17" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R17" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S17" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T17" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U17" t="n">
         <v>4550.100609912873</v>
@@ -5554,13 +5554,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W17" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X17" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="18">
@@ -5740,13 +5740,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004236</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436399</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I20" t="n">
         <v>102.2608402707796</v>
@@ -5761,25 +5761,25 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N20" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O20" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P20" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T20" t="n">
         <v>4809.322912595856</v>
@@ -5791,13 +5791,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W20" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X20" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3955.973997051464</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C21" t="n">
-        <v>3849.517535888106</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D21" t="n">
-        <v>3754.427247034659</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E21" t="n">
-        <v>3660.306832361613</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F21" t="n">
-        <v>3576.922993977775</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G21" t="n">
-        <v>3491.537904243959</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H21" t="n">
-        <v>3449.802252060171</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I21" t="n">
-        <v>3475.865925220629</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J21" t="n">
-        <v>3800.424250186841</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K21" t="n">
-        <v>4455.130296812565</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L21" t="n">
-        <v>4455.130296812565</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M21" t="n">
-        <v>4455.130296812565</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N21" t="n">
-        <v>4455.130296812565</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O21" t="n">
-        <v>4455.130296812565</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P21" t="n">
-        <v>4455.130296812565</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q21" t="n">
-        <v>4995.86923544464</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R21" t="n">
-        <v>5113.04201353898</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S21" t="n">
-        <v>5049.586575987363</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T21" t="n">
-        <v>4919.407932317965</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U21" t="n">
-        <v>4743.071385317933</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V21" t="n">
-        <v>4543.953867379932</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W21" t="n">
-        <v>4358.631113113126</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X21" t="n">
-        <v>4203.763677352006</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y21" t="n">
-        <v>4077.277898131227</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="22">
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>952.7568773477108</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C22" t="n">
-        <v>780.1951658309357</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D22" t="n">
-        <v>614.3171730324584</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E22" t="n">
-        <v>444.5591692831957</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F22" t="n">
-        <v>267.852115244952</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G22" t="n">
-        <v>102.2608402707796</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="H22" t="n">
         <v>102.2608402707796</v>
@@ -5937,25 +5937,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>2700.681281130895</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T22" t="n">
-        <v>2454.80183470935</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U22" t="n">
-        <v>2176.368833962455</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V22" t="n">
-        <v>1889.413325832886</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W22" t="n">
-        <v>1617.386921419177</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X22" t="n">
-        <v>1371.99516675259</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y22" t="n">
-        <v>1144.575496066698</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="23">
@@ -5977,13 +5977,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
@@ -5995,10 +5995,10 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L23" t="n">
-        <v>1463.16863798718</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>1463.16863798718</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N23" t="n">
         <v>2588.899621423627</v>
@@ -6028,13 +6028,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W23" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X23" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y23" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="24">
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>952.7568773477108</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C25" t="n">
-        <v>780.1951658309357</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D25" t="n">
-        <v>614.3171730324584</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E25" t="n">
-        <v>444.5591692831957</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F25" t="n">
-        <v>267.852115244952</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G25" t="n">
-        <v>102.2608402707796</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="H25" t="n">
         <v>102.2608402707796</v>
@@ -6174,25 +6174,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2700.681281130895</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T25" t="n">
-        <v>2454.80183470935</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U25" t="n">
-        <v>2176.368833962455</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V25" t="n">
-        <v>1889.413325832886</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W25" t="n">
-        <v>1617.386921419177</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X25" t="n">
-        <v>1371.99516675259</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y25" t="n">
-        <v>1144.575496066698</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="26">
@@ -6214,40 +6214,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K26" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L26" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>3007.131363532227</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N26" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O26" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P26" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q26" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6265,13 +6265,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W26" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X26" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y26" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="27">
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>952.7568773477108</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C28" t="n">
-        <v>780.1951658309357</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D28" t="n">
-        <v>614.3171730324584</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E28" t="n">
-        <v>444.5591692831957</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F28" t="n">
-        <v>267.852115244952</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G28" t="n">
-        <v>102.2608402707796</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="H28" t="n">
         <v>102.2608402707796</v>
@@ -6411,25 +6411,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2700.681281130895</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T28" t="n">
-        <v>2454.80183470935</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U28" t="n">
-        <v>2176.368833962455</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V28" t="n">
-        <v>1889.413325832886</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W28" t="n">
-        <v>1617.386921419177</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X28" t="n">
-        <v>1371.99516675259</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y28" t="n">
-        <v>1144.575496066698</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="29">
@@ -6454,10 +6454,10 @@
         <v>793.2056155771597</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004236</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436399</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
@@ -6466,13 +6466,13 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K29" t="n">
-        <v>537.5155277236975</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L29" t="n">
-        <v>537.5155277236975</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M29" t="n">
-        <v>1463.16863798718</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N29" t="n">
         <v>2588.899621423627</v>
@@ -6539,31 +6539,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J30" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L30" t="n">
-        <v>1056.803889081883</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M30" t="n">
-        <v>1056.803889081883</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N30" t="n">
-        <v>1056.803889081883</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O30" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P30" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q30" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R30" t="n">
         <v>1765.500601749588</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1181.319000882661</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C31" t="n">
-        <v>1008.757289365886</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D31" t="n">
-        <v>842.8792965674086</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E31" t="n">
-        <v>673.1212928181459</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F31" t="n">
-        <v>496.4142387799021</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G31" t="n">
-        <v>330.8229638057297</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="H31" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6657,16 +6657,16 @@
         <v>2194.608003005139</v>
       </c>
       <c r="V31" t="n">
-        <v>2117.975449367836</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W31" t="n">
-        <v>1845.949044954127</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X31" t="n">
-        <v>1600.55729028754</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y31" t="n">
-        <v>1373.137619601648</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C32" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D32" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E32" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436408</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
@@ -6709,43 +6709,43 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M32" t="n">
-        <v>2588.899621423627</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N32" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O32" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P32" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q32" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R32" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S32" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T32" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U32" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V32" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W32" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X32" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y32" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="33">
@@ -6925,13 +6925,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
@@ -6943,10 +6943,10 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L35" t="n">
-        <v>1463.16863798718</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M35" t="n">
-        <v>1463.16863798718</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N35" t="n">
         <v>2588.899621423627</v>
@@ -6976,13 +6976,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X35" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="36">
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>952.7568773477108</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C37" t="n">
-        <v>780.1951658309357</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D37" t="n">
-        <v>614.3171730324584</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E37" t="n">
-        <v>444.5591692831957</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F37" t="n">
-        <v>267.852115244952</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G37" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H37" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I37" t="n">
         <v>102.2608402707796</v>
@@ -7122,25 +7122,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2700.681281130895</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T37" t="n">
-        <v>2454.80183470935</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U37" t="n">
-        <v>2176.368833962455</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V37" t="n">
-        <v>1889.413325832886</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W37" t="n">
-        <v>1617.386921419177</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X37" t="n">
-        <v>1371.99516675259</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y37" t="n">
-        <v>1144.575496066698</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="38">
@@ -7162,40 +7162,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K38" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L38" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M38" t="n">
-        <v>2446.925785934734</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N38" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O38" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P38" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q38" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R38" t="n">
         <v>5113.04201353898</v>
@@ -7213,13 +7213,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W38" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="39">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3346.878440713112</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C40" t="n">
-        <v>3174.316729196337</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D40" t="n">
-        <v>3008.43873639786</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E40" t="n">
-        <v>2838.680732648597</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F40" t="n">
-        <v>2661.973678610354</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G40" t="n">
-        <v>2496.382403636181</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H40" t="n">
-        <v>2496.382403636181</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I40" t="n">
-        <v>2496.382403636181</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J40" t="n">
-        <v>2582.962088800871</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K40" t="n">
-        <v>2857.720543372006</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L40" t="n">
-        <v>3275.930425139967</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M40" t="n">
-        <v>3735.41429232088</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N40" t="n">
-        <v>4177.673095478524</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O40" t="n">
-        <v>4597.342344704307</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P40" t="n">
-        <v>4944.849238674648</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q40" t="n">
-        <v>5113.04201353898</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>5113.04201353898</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>5094.802844496296</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T40" t="n">
-        <v>4848.923398074751</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U40" t="n">
-        <v>4570.490397327857</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V40" t="n">
-        <v>4283.534889198288</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W40" t="n">
-        <v>4011.508484784579</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X40" t="n">
-        <v>3766.116730117991</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y40" t="n">
-        <v>3538.6970594321</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="41">
@@ -7399,40 +7399,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F41" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G41" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H41" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I41" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J41" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K41" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L41" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M41" t="n">
-        <v>3007.131363532227</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N41" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O41" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P41" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q41" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R41" t="n">
         <v>5113.04201353898</v>
@@ -7450,13 +7450,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W41" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X41" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y41" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3955.973997051464</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C42" t="n">
-        <v>3849.517535888106</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D42" t="n">
-        <v>3754.427247034659</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E42" t="n">
-        <v>3660.306832361613</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F42" t="n">
-        <v>3576.922993977775</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G42" t="n">
-        <v>3491.537904243959</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H42" t="n">
-        <v>3449.802252060171</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I42" t="n">
-        <v>3475.865925220629</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J42" t="n">
-        <v>3800.424250186841</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K42" t="n">
-        <v>4455.130296812565</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L42" t="n">
-        <v>4455.130296812565</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M42" t="n">
-        <v>4455.130296812565</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N42" t="n">
-        <v>4455.130296812565</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O42" t="n">
-        <v>4455.130296812565</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P42" t="n">
-        <v>4455.130296812565</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q42" t="n">
-        <v>4995.86923544464</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R42" t="n">
-        <v>5113.04201353898</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S42" t="n">
-        <v>5049.586575987363</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T42" t="n">
-        <v>4919.407932317965</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U42" t="n">
-        <v>4743.071385317933</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V42" t="n">
-        <v>4543.953867379932</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W42" t="n">
-        <v>4358.631113113126</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X42" t="n">
-        <v>4203.763677352006</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y42" t="n">
-        <v>4077.277898131227</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="43">
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>970.9960463903949</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C43" t="n">
-        <v>798.4343348736198</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D43" t="n">
-        <v>632.5563420751425</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E43" t="n">
-        <v>462.7983383258798</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F43" t="n">
-        <v>286.091284287636</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G43" t="n">
-        <v>120.5000093134636</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H43" t="n">
         <v>102.2608402707796</v>
@@ -7596,25 +7596,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S43" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T43" t="n">
-        <v>2473.041003752034</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U43" t="n">
-        <v>2194.608003005139</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V43" t="n">
-        <v>1907.65249487557</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W43" t="n">
-        <v>1635.626090461861</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X43" t="n">
-        <v>1390.234335795274</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y43" t="n">
-        <v>1162.814665109382</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="44">
@@ -7636,13 +7636,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F44" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G44" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H44" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I44" t="n">
         <v>102.2608402707796</v>
@@ -7687,13 +7687,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W44" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X44" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y44" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3955.973997051464</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C45" t="n">
-        <v>3849.517535888106</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D45" t="n">
-        <v>3754.427247034659</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E45" t="n">
-        <v>3660.306832361613</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F45" t="n">
-        <v>3576.922993977775</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G45" t="n">
-        <v>3491.537904243959</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H45" t="n">
-        <v>3449.802252060171</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I45" t="n">
-        <v>3475.865925220629</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J45" t="n">
-        <v>3800.424250186841</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K45" t="n">
-        <v>4455.130296812565</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L45" t="n">
-        <v>4455.130296812565</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M45" t="n">
-        <v>4455.130296812565</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N45" t="n">
-        <v>4455.130296812565</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O45" t="n">
-        <v>4455.130296812565</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P45" t="n">
-        <v>4455.130296812565</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q45" t="n">
-        <v>4995.86923544464</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R45" t="n">
-        <v>5113.04201353898</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S45" t="n">
-        <v>5049.586575987363</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T45" t="n">
-        <v>4919.407932317965</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U45" t="n">
-        <v>4743.071385317933</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V45" t="n">
-        <v>4543.953867379932</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W45" t="n">
-        <v>4358.631113113126</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X45" t="n">
-        <v>4203.763677352006</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y45" t="n">
-        <v>4077.277898131227</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3346.878440713112</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C46" t="n">
-        <v>3174.316729196337</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D46" t="n">
-        <v>3008.43873639786</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E46" t="n">
-        <v>2838.680732648597</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F46" t="n">
-        <v>2661.973678610354</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G46" t="n">
-        <v>2496.382403636181</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H46" t="n">
-        <v>2496.382403636181</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I46" t="n">
-        <v>2496.382403636181</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J46" t="n">
-        <v>2582.962088800871</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K46" t="n">
-        <v>2857.720543372006</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L46" t="n">
-        <v>3275.930425139967</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M46" t="n">
-        <v>3735.41429232088</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N46" t="n">
-        <v>4177.673095478524</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O46" t="n">
-        <v>4597.342344704307</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P46" t="n">
-        <v>4944.849238674648</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q46" t="n">
-        <v>5113.04201353898</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R46" t="n">
-        <v>5113.04201353898</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S46" t="n">
-        <v>5094.802844496296</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T46" t="n">
-        <v>4848.923398074751</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U46" t="n">
-        <v>4570.490397327857</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V46" t="n">
-        <v>4283.534889198288</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W46" t="n">
-        <v>4011.508484784579</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X46" t="n">
-        <v>3766.116730117991</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y46" t="n">
-        <v>3538.6970594321</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
   </sheetData>
@@ -7978,13 +7978,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -7993,7 +7993,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>585.1784344521125</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>667.5152066078572</v>
@@ -8230,16 +8230,16 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
+        <v>316.3899266744752</v>
+      </c>
+      <c r="P5" t="n">
         <v>667.5152066078572</v>
-      </c>
-      <c r="P5" t="n">
-        <v>145.5272350047208</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8291,13 +8291,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>20.13097499434632</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>667.5152066078571</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8458,7 +8458,7 @@
         <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8467,16 +8467,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>667.5152066078572</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>316.3899266744752</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8534,7 +8534,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8549,7 +8549,7 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>546.2009481132077</v>
@@ -8689,25 +8689,25 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>585.1784344521125</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P11" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157522</v>
@@ -8771,13 +8771,13 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8926,28 +8926,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>145.5272350047206</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>469.6822035600077</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q14" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>170.8626916697543</v>
@@ -9172,10 +9172,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N17" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
@@ -9409,10 +9409,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N20" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9643,13 +9643,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
-        <v>92.22506899525706</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
@@ -9874,31 +9874,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10114,16 +10114,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>935.0031416802852</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
@@ -10187,16 +10187,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10205,16 +10205,16 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>715.8552653209142</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10357,10 +10357,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
@@ -10591,13 +10591,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
-        <v>92.22506899525706</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
@@ -10822,31 +10822,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N38" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P38" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11059,31 +11059,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N41" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -22549,25 +22549,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>423.5887552948843</v>
+        <v>369.0353499799954</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>154.0764661133799</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22600,19 +22600,19 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22719,7 +22719,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>138.5031525665292</v>
@@ -22764,7 +22764,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>139.5921776627259</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -22783,28 +22783,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>338.2915630457728</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>369.1917910932736</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22834,25 +22834,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -22956,13 +22956,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>65.48800580459427</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22989,10 +22989,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -23020,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
         <v>433.7610480884109</v>
@@ -23032,16 +23032,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>336.0812019346619</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23071,25 +23071,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>55.35862963773565</v>
       </c>
       <c r="U8" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="9">
@@ -23193,13 +23193,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23235,10 +23235,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>90.2200092229007</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -23257,28 +23257,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>425.3950581867473</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,22 +23308,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>369.0353499799955</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23430,7 +23430,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>138.5031525665292</v>
@@ -23466,7 +23466,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23503,19 +23503,19 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23548,10 +23548,10 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>358.9907805655117</v>
@@ -23560,10 +23560,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>369.0353499799955</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>277.1577062940164</v>
       </c>
     </row>
     <row r="15">
@@ -24144,7 +24144,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>120.4463752142721</v>
       </c>
       <c r="I22" t="n">
         <v>87.77334973307141</v>
@@ -24177,7 +24177,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>139.5921776627258</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24381,7 +24381,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>120.4463752142721</v>
       </c>
       <c r="I25" t="n">
         <v>87.77334973307141</v>
@@ -24414,7 +24414,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>139.5921776627258</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24618,7 +24618,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>120.4463752142721</v>
       </c>
       <c r="I28" t="n">
         <v>87.77334973307141</v>
@@ -24651,7 +24651,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>139.5921776627258</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>120.4463752142721</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24897,7 +24897,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>208.2197249473435</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25326,13 +25326,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>69.71657238081426</v>
       </c>
       <c r="H37" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,7 +25362,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>139.5921776627258</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25599,7 +25599,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>139.5921776627253</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25803,7 +25803,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>120.446375214272</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
         <v>87.77334973307141</v>
@@ -25836,7 +25836,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26037,13 +26037,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>69.71657238081426</v>
       </c>
       <c r="H46" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,7 +26073,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>139.5921776627253</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>465699.6043113677</v>
+        <v>465699.6043113678</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>465699.6043113677</v>
+        <v>465699.6043113676</v>
       </c>
     </row>
     <row r="5">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>465699.6043113677</v>
+        <v>465699.6043113676</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>725498.9124939644</v>
+        <v>725498.9124939643</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>725498.9124939644</v>
+        <v>725498.9124939643</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>725498.9124939644</v>
+        <v>725498.9124939643</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>725498.9124939644</v>
+        <v>725498.9124939643</v>
       </c>
     </row>
     <row r="12">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>725498.9124939643</v>
+        <v>725498.9124939644</v>
       </c>
     </row>
     <row r="16">
@@ -26325,7 +26325,7 @@
         <v>160640.833517505</v>
       </c>
       <c r="F2" t="n">
-        <v>160640.833517505</v>
+        <v>160640.8335175049</v>
       </c>
       <c r="G2" t="n">
         <v>250257.3524652424</v>
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>167396.1246670934</v>
+        <v>167396.1246670935</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26404,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>146976.4664146549</v>
+        <v>146976.466414655</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26423,7 +26423,7 @@
         <v>35023.37484795162</v>
       </c>
       <c r="D4" t="n">
-        <v>35023.37484795162</v>
+        <v>35023.37484795161</v>
       </c>
       <c r="E4" t="n">
         <v>35023.37484795162</v>
@@ -26441,22 +26441,22 @@
         <v>54561.82510962276</v>
       </c>
       <c r="J4" t="n">
-        <v>54561.82510962275</v>
+        <v>54561.82510962276</v>
       </c>
       <c r="K4" t="n">
-        <v>54561.82510962275</v>
+        <v>54561.82510962276</v>
       </c>
       <c r="L4" t="n">
-        <v>54561.82510962276</v>
+        <v>54561.82510962277</v>
       </c>
       <c r="M4" t="n">
         <v>54561.82510962276</v>
       </c>
       <c r="N4" t="n">
+        <v>54561.82510962275</v>
+      </c>
+      <c r="O4" t="n">
         <v>54561.82510962276</v>
-      </c>
-      <c r="O4" t="n">
-        <v>54561.82510962275</v>
       </c>
       <c r="P4" t="n">
         <v>54561.82510962276</v>
@@ -26475,43 +26475,43 @@
         <v>74212.52456175772</v>
       </c>
       <c r="D5" t="n">
-        <v>74212.52456175772</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>40584.92456175771</v>
+        <v>40584.9245617577</v>
       </c>
       <c r="F5" t="n">
-        <v>40584.92456175771</v>
+        <v>40584.9245617577</v>
       </c>
       <c r="G5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="H5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="I5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="J5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="K5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="L5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="N5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="P5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-172294.7644762492</v>
+        <v>-172789.6547048305</v>
       </c>
       <c r="C6" t="n">
-        <v>51404.93410779563</v>
+        <v>50910.04387921441</v>
       </c>
       <c r="D6" t="n">
-        <v>51404.93410779566</v>
+        <v>50910.04387921441</v>
       </c>
       <c r="E6" t="n">
-        <v>85032.53410779567</v>
+        <v>84537.6438792144</v>
       </c>
       <c r="F6" t="n">
-        <v>85032.53410779567</v>
+        <v>84537.64387921437</v>
       </c>
       <c r="G6" t="n">
-        <v>-49418.83591726629</v>
+        <v>-49442.06025664902</v>
       </c>
       <c r="H6" t="n">
-        <v>117977.2887498271</v>
+        <v>117954.0644104445</v>
       </c>
       <c r="I6" t="n">
-        <v>117977.2887498271</v>
+        <v>117954.0644104444</v>
       </c>
       <c r="J6" t="n">
-        <v>-56674.05996787906</v>
+        <v>-56697.28430726173</v>
       </c>
       <c r="K6" t="n">
-        <v>117977.2887498271</v>
+        <v>117954.0644104444</v>
       </c>
       <c r="L6" t="n">
-        <v>117977.2887498271</v>
+        <v>117954.0644104445</v>
       </c>
       <c r="M6" t="n">
-        <v>117977.2887498271</v>
+        <v>117954.0644104444</v>
       </c>
       <c r="N6" t="n">
-        <v>117977.2887498271</v>
+        <v>117954.0644104444</v>
       </c>
       <c r="O6" t="n">
-        <v>-28999.1776648278</v>
+        <v>-29022.40200421054</v>
       </c>
       <c r="P6" t="n">
-        <v>117977.2887498271</v>
+        <v>117954.0644104444</v>
       </c>
     </row>
   </sheetData>
@@ -26795,13 +26795,13 @@
         <v>667.5152066078571</v>
       </c>
       <c r="D4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="F4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="G4" t="n">
         <v>1278.260503384745</v>
@@ -27026,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>610.745296776888</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27050,7 +27050,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>610.745296776888</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>610.745296776888</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34698,13 +34698,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -34713,7 +34713,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>585.1784344521125</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>667.5152066078572</v>
@@ -34950,16 +34950,16 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
+        <v>316.3899266744752</v>
+      </c>
+      <c r="P5" t="n">
         <v>667.5152066078572</v>
-      </c>
-      <c r="P5" t="n">
-        <v>145.5272350047208</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35011,13 +35011,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>20.13097499434632</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J6" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>667.5152066078571</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -35093,7 +35093,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -35178,7 +35178,7 @@
         <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35187,16 +35187,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>667.5152066078572</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>316.3899266744752</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35248,13 +35248,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35269,7 +35269,7 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>546.2009481132077</v>
@@ -35409,25 +35409,25 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>585.1784344521125</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P11" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157523</v>
@@ -35485,19 +35485,19 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>145.5272350047206</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>469.6822035600077</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q14" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>170.8626916697544</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
         <v>327.836691885063</v>
@@ -35892,10 +35892,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N17" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
         <v>327.836691885063</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
@@ -36129,10 +36129,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N20" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
@@ -36196,10 +36196,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
         <v>661.3192390158824</v>
@@ -36220,7 +36220,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>546.2009481132081</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
         <v>118.3563415094341</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
@@ -36363,13 +36363,13 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L23" t="n">
-        <v>92.22506899525706</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
         <v>327.836691885063</v>
@@ -36515,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K25" t="n">
         <v>277.5337924960966</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
         <v>327.836691885063</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K28" t="n">
         <v>277.5337924960966</v>
@@ -36834,16 +36834,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>935.0031416802852</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
@@ -36907,16 +36907,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -36925,16 +36925,16 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>715.8552653209142</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K31" t="n">
         <v>277.5337924960966</v>
@@ -37077,10 +37077,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
         <v>327.836691885063</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K34" t="n">
         <v>277.5337924960966</v>
@@ -37311,13 +37311,13 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L35" t="n">
-        <v>92.22506899525706</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
         <v>327.836691885063</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
         <v>277.5337924960966</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N38" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
         <v>327.836691885063</v>
@@ -37700,13 +37700,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
         <v>464.1251183645586</v>
@@ -37715,13 +37715,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P40" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q40" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L41" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N41" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,10 +37855,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
         <v>661.3192390158824</v>
@@ -37879,7 +37879,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>546.2009481132081</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
         <v>118.3563415094341</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
@@ -38092,10 +38092,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
         <v>661.3192390158824</v>
@@ -38116,7 +38116,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>546.2009481132081</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
@@ -38174,13 +38174,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
         <v>464.1251183645586</v>
@@ -38189,13 +38189,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P46" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q46" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
